--- a/i18n/lt.xlsx
+++ b/i18n/lt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="1629">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1204,7 +1204,7 @@
     <t xml:space="preserve">Korsikinis bukutis</t>
   </si>
   <si>
-    <t xml:space="preserve">Paimkite 1 naują premijos kortą. Tada iš lesyklėlės gaukite 1 [die].</t>
+    <t xml:space="preserve">paimkite 1 naują premijos kortą. Tada iš lesyklėlės gaukite 1 [die].</t>
   </si>
   <si>
     <t xml:space="preserve">Dark-Eyed Junco</t>
@@ -1360,6 +1360,9 @@
     <t xml:space="preserve">Žalioji meleta</t>
   </si>
   <si>
+    <t xml:space="preserve">Vadovaujantis priedu ir oficialiais </t>
+  </si>
+  <si>
     <t xml:space="preserve">Eurasian Hobby</t>
   </si>
   <si>
@@ -2014,7 +2017,7 @@
     <t xml:space="preserve">Sylvia subalpina</t>
   </si>
   <si>
-    <t xml:space="preserve">Moltono alpinė devynbalsė</t>
+    <t xml:space="preserve">Moltonio alpinė devynbalsė</t>
   </si>
   <si>
     <t xml:space="preserve">jei šiame raunde atlikote visus 4 skirtingus veiksmus, padėkite kitą paukštį. Už jį mokėkite įprastą kainą maistu ir kiaušiniais.</t>
@@ -2509,7 +2512,7 @@
     <t xml:space="preserve">Nendrinis žiogelis</t>
   </si>
   <si>
-    <t xml:space="preserve">Paimkite 2 [card]. Visi kiti žaidėjai paima po 1 [card] iš krūvelės.</t>
+    <t xml:space="preserve">paimkite 2 [card]. Visi kiti žaidėjai paima po 1 [card] iš krūvelės.</t>
   </si>
   <si>
     <t xml:space="preserve">Kortas, kaip įprasta, jūs galite imti iš atverstų kortų dėkle arba iš krūvelės, o visi kiti žaidėjai savo kortas gali imti tik iš krūvelės.</t>
@@ -4081,7 +4084,7 @@
     <t xml:space="preserve">VP</t>
   </si>
   <si>
-    <t xml:space="preserve">ANATOMAS</t>
+    <t xml:space="preserve">Anatomas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, kurių pavadinimuose yra kūno dalys</t>
@@ -4090,7 +4093,7 @@
     <t xml:space="preserve">Šios kūno dalys yra: akis, ausis, galva, gurklys, kaklas, kakta, koja, krūtinė, kuodas, nugara, pentinai, petys, pilvas, pirštas, ragas, skruostas, snapas, sparnas, uodega.</t>
   </si>
   <si>
-    <t xml:space="preserve">2–3 PAUKŠČIAI: 3[point]; 4+ PAUKŠČIAI: 6[point]</t>
+    <t xml:space="preserve">2–3 paukščiai: 3[point]; 4+ paukščiai: 6[point]</t>
   </si>
   <si>
     <t xml:space="preserve">Suskaičiuokite savo padėtus paukščius, kurių pavadinimuose yra vienas iš šių anatomijos terminų. Paukščius skaičiuokite nepaisydami žodžio giminės, formos, ar žodis sudurtinis (pvz., „baltagalvis“). Šie terminai yra: akis, ausis, galva, gurklys, kaklas, kakta, koja, krūtinė, kuodas, nugara, pentinai, petys, pilvas, pirštas, ragas, skruostas, snapas, sparnas, uodega.</t>
@@ -4099,13 +4102,13 @@
     <t xml:space="preserve">Backyard Birder</t>
   </si>
   <si>
-    <t xml:space="preserve">SMULKUS PAUKŠTININKAS</t>
+    <t xml:space="preserve">Smulkus paukštininkas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, kurių vertė mažesnė nei 4 taškai</t>
   </si>
   <si>
-    <t xml:space="preserve">5–6 PAUKŠČIAI: 3[point]; 7+ PAUKŠČIAI: 6[point]</t>
+    <t xml:space="preserve">5–6 paukščiai: 3[point]; 7+ paukščiai: 6[point]</t>
   </si>
   <si>
     <t xml:space="preserve">Suskaičiuokite savo padėtus paukščius, kurių vertė taškais yra 0, 1, 2 arba 3.</t>
@@ -4114,13 +4117,13 @@
     <t xml:space="preserve">Bird Counter</t>
   </si>
   <si>
-    <t xml:space="preserve">PAUKŠČIŲ SKAIČIUOTOJAS</t>
+    <t xml:space="preserve">Paukščių skaičiuotojas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, turintys [flocking] galią</t>
   </si>
   <si>
-    <t xml:space="preserve">2[point] UŽ PAUKŠTĮ</t>
+    <t xml:space="preserve">2[point] už paukštį</t>
   </si>
   <si>
     <t xml:space="preserve">Suskaičiuokite savo padėtus paukščius, turinčius konkretų simbolį, pavaizduotą šioje premijos kortoje. Simbolis turėtų būti kairiojoje paukščio rudos galios pusėje.</t>
@@ -4129,7 +4132,7 @@
     <t xml:space="preserve">Bird Feeder</t>
   </si>
   <si>
-    <t xml:space="preserve">PAUKŠČIŲ MAITINTOJAS</t>
+    <t xml:space="preserve">Paukščių maitintojas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, mintantys [seed]</t>
@@ -4138,25 +4141,25 @@
     <t xml:space="preserve">Bet koks paukštis su simboliu [seed]. Paukštis taip pat gali misti ir kitos rūšies maistu.</t>
   </si>
   <si>
-    <t xml:space="preserve">5–7 PAUKŠČIAI: 3[point]; 8+ PAUKŠČIAI: 7[point]</t>
+    <t xml:space="preserve">5–7 paukščiai: 3[point]; 8+ paukščiai: 7[point]</t>
   </si>
   <si>
     <t xml:space="preserve">Breeding Manager</t>
   </si>
   <si>
-    <t xml:space="preserve">PAUKŠČIŲ VEISĖJAS</t>
+    <t xml:space="preserve">Paukščių veisėjas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, ant kurių padėti bent 4 kiaušiniai</t>
   </si>
   <si>
-    <t xml:space="preserve">1[point] UŽ PAUKŠTĮ</t>
+    <t xml:space="preserve">1[point] už paukštį</t>
   </si>
   <si>
     <t xml:space="preserve">Suskaičiuokite tik tas paukščių kortas, ant kurių žaidimo pabaigoje yra 4 kiaušiniai.</t>
   </si>
   <si>
-    <t xml:space="preserve">KARTOGRAFAS</t>
+    <t xml:space="preserve">Kartografas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, kurių pavadinimuose yra geografiniai terminai</t>
@@ -4165,7 +4168,7 @@
     <t xml:space="preserve">Šie terminai yra: Alpės, Amerika, Europa, Islandija, Jamaika, jūros, Kalifornija, kalnai, Kanada, Karolina, Korsika, Meksika, Misisipė, miškai, Peru, pietūs, prerijos, rytai, šiaurė, vakarai, Viduržemis, Virginija.</t>
   </si>
   <si>
-    <t xml:space="preserve">3-4 PAUKŠČIAI: 3[point]; 5+ PAUKŠČIAI: 7[point]</t>
+    <t xml:space="preserve">3-4 paukščiai: 3[point]; 5+ paukščiai: 7[point]</t>
   </si>
   <si>
     <r>
@@ -4192,7 +4195,7 @@
     <t xml:space="preserve">Ecologist</t>
   </si>
   <si>
-    <t xml:space="preserve">EKOLOGAS</t>
+    <t xml:space="preserve">Ekologas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai jūsų buveinėje, kurioje yra mažiausiai paukščių</t>
@@ -4207,7 +4210,7 @@
     <t xml:space="preserve">Enclosure Builder</t>
   </si>
   <si>
-    <t xml:space="preserve">APTVARŲ STATYTOJAS</t>
+    <t xml:space="preserve">Aptvarų statytojas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai su [ground] lizdais</t>
@@ -4216,7 +4219,7 @@
     <t xml:space="preserve">Paukščiai turi turėti [ground] arba [star] lizdo simbolį.</t>
   </si>
   <si>
-    <t xml:space="preserve">4–5 PAUKŠČIAI: 4[point]; 6+ PAUKŠČIAI: 7[point]</t>
+    <t xml:space="preserve">4–5 paukščiai: 4[point]; 6+ paukščiai: 7[point]</t>
   </si>
   <si>
     <t xml:space="preserve">Suskaičiuokite visus padėtus paukščius, kurių kortose pavaizduotas konkretus lizdo simbolis.&lt;br&gt;Žvaigždute [star] pažymėti lizdai yra universalūs. Prie visų šių keturių premijų įskaitomi ir paukščiai su žvaigždutės simboliu pažymėtais lizdais.</t>
@@ -4225,7 +4228,7 @@
     <t xml:space="preserve">Falconer</t>
   </si>
   <si>
-    <t xml:space="preserve">SAKALININKAS</t>
+    <t xml:space="preserve">Sakalininkas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, turintys [predator] galią</t>
@@ -4234,7 +4237,7 @@
     <t xml:space="preserve">Fishery Manager</t>
   </si>
   <si>
-    <t xml:space="preserve">ŽUVININKYSTĖS VADOVAS</t>
+    <t xml:space="preserve">Žuvininkystės vadovas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, mintantys [fish]</t>
@@ -4243,13 +4246,13 @@
     <t xml:space="preserve">Bet koks paukštis su simboliu [fish]. Paukštis taip pat gali misti ir kitos rūšies maistu.</t>
   </si>
   <si>
-    <t xml:space="preserve">2–3 PAUKŠČIAI: 3[point]; 4+ PAUKŠČIAI: 8[point]</t>
+    <t xml:space="preserve">2–3 paukščiai: 3[point]; 4+ paukščiai: 8[point]</t>
   </si>
   <si>
     <t xml:space="preserve">Food Web Expert</t>
   </si>
   <si>
-    <t xml:space="preserve">MITYBOS TINKLO EKSPERTAS</t>
+    <t xml:space="preserve">Mitybos tinklo ekspertas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, mintantys tik [invertebrate]</t>
@@ -4261,28 +4264,28 @@
     <t xml:space="preserve">Forester</t>
   </si>
   <si>
-    <t xml:space="preserve">MIŠKININKAS</t>
+    <t xml:space="preserve">Miškininkas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, kurie gali gyventi tik [forest]</t>
   </si>
   <si>
-    <t xml:space="preserve">3–4 PAUKŠČIAI: 4[point]; 5 PAUKŠČIAI: 8[point]</t>
+    <t xml:space="preserve">3–4 paukščiai: 4[point]; 5 paukščiai: 8[point]</t>
   </si>
   <si>
     <t xml:space="preserve">Suskaičiuokite tik tuos paukščius, kurių buveinės simbolis pavaizduotas šioje premijos kortoje. Jei paukštis gali gyventi daugiau nei vienos rūšies buveinėje, jis negali būti skaičiuojamas prie šios premijos.</t>
   </si>
   <si>
-    <t xml:space="preserve">ISTORIKAS</t>
+    <t xml:space="preserve">Istorikas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, pavadinti žymių žmonių vardais</t>
   </si>
   <si>
-    <t xml:space="preserve">Šie vardai yra: Ana, Belas, Berdas, Četis, Eleonora, Forsteris, Kasinas, Klarkas, Kuperis, Linkolnas, Maltonis, Sėjus, Steleris, Sveinsonas, Vilsonas, Vo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3[point] UŽ PAUKŠTĮ</t>
+    <t xml:space="preserve">Šie vardai yra: Ana, Belas, Berdas, Četis, Eleonora, Forsteris, Kasinas, Klarkas, Kuperis, Linkolnas, Moltonis, Sėjus, Steleris, Sveinsonas, Vilsonas, Vo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3[point] už paukštį</t>
   </si>
   <si>
     <r>
@@ -4309,13 +4312,13 @@
     <t xml:space="preserve">Large Bird Specialist</t>
   </si>
   <si>
-    <t xml:space="preserve">STAMBIŲ PAUKŠČIŲ SPECIALISTAS</t>
+    <t xml:space="preserve">Stambių paukščių specialistas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, kurių sparnų plotis didesnis nei 65 cm</t>
   </si>
   <si>
-    <t xml:space="preserve">4–5 PAUKŠČIAI: 3[point]; 6+ PAUKŠČIAI: 6[point]</t>
+    <t xml:space="preserve">4–5 paukščiai: 3[point]; 6+ paukščiai: 6[point]</t>
   </si>
   <si>
     <t xml:space="preserve">Suskaičiuokite savo padėtus paukščius, kurių sparnų plotis didesnis nei 65 cm. Jeigu sparnų plotis yra lygiai 65 cm, paukštis prie šios premijos neskaičiuojamas.</t>
@@ -4324,7 +4327,7 @@
     <t xml:space="preserve">Nest Box Builder</t>
   </si>
   <si>
-    <t xml:space="preserve">INKILŲ KALĖJAS</t>
+    <t xml:space="preserve">Inkilų kalėjas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai su [cavity] lizdais</t>
@@ -4336,7 +4339,7 @@
     <t xml:space="preserve">Omnivore Specialist</t>
   </si>
   <si>
-    <t xml:space="preserve">VISAĖDŽIŲ EKSPERTAS</t>
+    <t xml:space="preserve">Visaėdžių ekspertas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, mintantys [wild]</t>
@@ -4348,13 +4351,13 @@
     <t xml:space="preserve">Oologist</t>
   </si>
   <si>
-    <t xml:space="preserve">OOLOGAS</t>
+    <t xml:space="preserve">Oologas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, ant kurių padėtas bent 1 kiaušinis</t>
   </si>
   <si>
-    <t xml:space="preserve">7–8 PAUKŠČIAI: 3[point]; 9+ PAUKŠČIAI: 6[point]</t>
+    <t xml:space="preserve">7–8 paukščiai: 3[point]; 9+ paukščiai: 6[point]</t>
   </si>
   <si>
     <t xml:space="preserve">Suskaičiuokite tik tas paukščių kortas, ant kurių žaidimo pabaigoje padėtas bent 1 kiaušinis.</t>
@@ -4363,7 +4366,7 @@
     <t xml:space="preserve">Passerine Specialist</t>
   </si>
   <si>
-    <t xml:space="preserve">ŽVIRBLINIŲ SPECIALISTAS</t>
+    <t xml:space="preserve">Žvirblinių specialistas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, kurių sparnų plotis yra 30 cm ar mažiau</t>
@@ -4372,7 +4375,7 @@
     <t xml:space="preserve">Suskaičiuokite savo padėtus paukščius, kurių sparnų plotis yra 30 cm ar mažiau. Jeigu sparnų plotis yra lygiai 30 cm, paukštis įskaičiuojamas prie šios premijos.</t>
   </si>
   <si>
-    <t xml:space="preserve">FOTOGRAFAS</t>
+    <t xml:space="preserve">Fotogragas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, kurių pavadinimuose yra spalvos</t>
@@ -4405,7 +4408,7 @@
     <t xml:space="preserve">Platform Builder</t>
   </si>
   <si>
-    <t xml:space="preserve">AUKŠTALIPYS</t>
+    <t xml:space="preserve">Aukštalipys</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai su [platform] lizdais</t>
@@ -4417,7 +4420,7 @@
     <t xml:space="preserve">Prairie Manager</t>
   </si>
   <si>
-    <t xml:space="preserve">PRERIJŲ VALDOVAS</t>
+    <t xml:space="preserve">Prerijų valdovas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, kurie gali gyventi tik [grassland]</t>
@@ -4426,7 +4429,7 @@
     <t xml:space="preserve">Rodentologist</t>
   </si>
   <si>
-    <t xml:space="preserve">GRAUŽIKŲ TYRINĖTOJAS</t>
+    <t xml:space="preserve">Graužikų tyrinėtojas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, mintantys [rodent]</t>
@@ -4438,13 +4441,13 @@
     <t xml:space="preserve">Visionary Leader</t>
   </si>
   <si>
-    <t xml:space="preserve">VIZIONIERIUS</t>
+    <t xml:space="preserve">Vizionierius</t>
   </si>
   <si>
     <t xml:space="preserve">Žaidimo pabaigoje jsų turimos nepadėtos paukščių kortos</t>
   </si>
   <si>
-    <t xml:space="preserve">5–7 PAUKŠČIAI: 4[point]; 8+ PAUKŠČIAI: 7[point]</t>
+    <t xml:space="preserve">5–7 paukščiai: 4[point]; 8+ paukščiai: 7[point]</t>
   </si>
   <si>
     <t xml:space="preserve">Suskaičiuokite žaidimo pabaigoje likusias nepadėtas savo paukščių kortas.</t>
@@ -4453,7 +4456,7 @@
     <t xml:space="preserve">Viticulturalist</t>
   </si>
   <si>
-    <t xml:space="preserve">VYNUOGININKAS</t>
+    <t xml:space="preserve">Vynuogininkas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, mintantys [fruit]</t>
@@ -4462,25 +4465,25 @@
     <t xml:space="preserve">Bet koks paukštis su simboliu [fruit]. Paukštis taip pat gali misti ir kitos rūšies maistu.</t>
   </si>
   <si>
-    <t xml:space="preserve">2–3 PAUKŠČIAI: 3[point]; 4+ PAUKŠČIAI: 7[point]</t>
+    <t xml:space="preserve">2–3 paukščiai: 3[point]; 4+ paukščiai: 7[point]</t>
   </si>
   <si>
     <t xml:space="preserve">Wetland Scientist</t>
   </si>
   <si>
-    <t xml:space="preserve">ŠLAPYNIŲ TYRĖJAS</t>
+    <t xml:space="preserve">Šlapyinių tyrėjas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, kurie gali gyventi tik [wetland]</t>
   </si>
   <si>
-    <t xml:space="preserve">3–4 PAUKŠČIAI: 3[point]; 5 PAUKŠČIAI: 7[point]</t>
+    <t xml:space="preserve">3–4 paukščiai: 3[point]; 5 paukščiai: 7[point]</t>
   </si>
   <si>
     <t xml:space="preserve">Wildlife Gardener</t>
   </si>
   <si>
-    <t xml:space="preserve">GAMTOS SODININKAS</t>
+    <t xml:space="preserve">Gamtos sodininkas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai su [bowl] lizdais</t>
@@ -4492,7 +4495,7 @@
     <t xml:space="preserve">Behaviorist</t>
   </si>
   <si>
-    <t xml:space="preserve">BIHEVIORISTAS</t>
+    <t xml:space="preserve">Bihevioristas</t>
   </si>
   <si>
     <t xml:space="preserve">Už kiekvieną stulpelį, kuriame yra 3 skirtingas (pvz., rudą, baltą, rožinę, turkio) galias turintys paukščiai:</t>
@@ -4501,13 +4504,13 @@
     <t xml:space="preserve">Galių neturintys paukščiai laikomi turinčiais baltą galią.</t>
   </si>
   <si>
-    <t xml:space="preserve">3[point] UŽ STULPELĮ</t>
+    <t xml:space="preserve">3[point] už stulpelį</t>
   </si>
   <si>
     <t xml:space="preserve">Bird Bander</t>
   </si>
   <si>
-    <t xml:space="preserve">PAUKŠČIŲ ŽIEDUOTOJAS</t>
+    <t xml:space="preserve">Paukščių žieduotojas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, galintys gyventi keliose buveinėse</t>
@@ -4516,19 +4519,19 @@
     <t xml:space="preserve">Citizen Scientist</t>
   </si>
   <si>
-    <t xml:space="preserve">MOKSLININKAS MĖGĖJAS</t>
+    <t xml:space="preserve">Mokslininkas mėgėjas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai su pakištomis kortomis</t>
   </si>
   <si>
-    <t xml:space="preserve">4–6 PAUKŠČIAI: 3[point]; 7+ PAUKŠČIAI: 6[point]</t>
+    <t xml:space="preserve">4–6 paukščiai: 3[point]; 7+ paukščiai: 6[point]</t>
   </si>
   <si>
     <t xml:space="preserve">Diet Specialist</t>
   </si>
   <si>
-    <t xml:space="preserve">MITYBOS SPECIALISTAS</t>
+    <t xml:space="preserve">Mitybos specialistas</t>
   </si>
   <si>
     <t xml:space="preserve">Paukščiai, kurių kaina maistu yra 3 žetonai</t>
@@ -4537,7 +4540,7 @@
     <t xml:space="preserve">Ethologist</t>
   </si>
   <si>
-    <t xml:space="preserve">ETOLOGAS</t>
+    <t xml:space="preserve">Etologas</t>
   </si>
   <si>
     <t xml:space="preserve">Bet kurioje buveinėje:</t>
@@ -4546,15 +4549,36 @@
     <t xml:space="preserve">(pvz., rudą, baltą, rožinę, turkio). Galių neturintys paukščiai laikomi turinčiais baltą galią.</t>
   </si>
   <si>
-    <t xml:space="preserve">2[point] UŽ KIEKVIENĄ GALIOS SPALVĄ</t>
+    <t xml:space="preserve">2[point] už kiekvieną galios spalvą</t>
   </si>
   <si>
     <t xml:space="preserve">[automa] Autwitcher</t>
   </si>
   <si>
+    <t xml:space="preserve">[automa] Paukščių stebėtojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paukščiai, kurių vertė yra 3 arba 4 taškai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(pirmiausia didesnės vertės).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automa pasilieka ne daugiau kaip 2 iš jų</t>
+  </si>
+  <si>
     <t xml:space="preserve">[automa] RASPB Life Fellow</t>
   </si>
   <si>
+    <t xml:space="preserve">[automa] LOD narys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paukščiai, kurių vertė yra 5, 6 arba 7 taškai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automa pasilieka vieną didžiausios vertės</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forest Data Analyst</t>
   </si>
   <si>
@@ -4729,7 +4753,7 @@
     <t xml:space="preserve">Food in Supply</t>
   </si>
   <si>
-    <t xml:space="preserve">TURIMAS MAISTAS</t>
+    <t xml:space="preserve">Turimas maistas</t>
   </si>
   <si>
     <t xml:space="preserve">JŪSŲ TURIMAS [wild]</t>
@@ -4741,7 +4765,7 @@
     <t xml:space="preserve">Birds Cards in Hand</t>
   </si>
   <si>
-    <t xml:space="preserve">PAUKŠČIŲ KORTOS RANKOJE</t>
+    <t xml:space="preserve">Paukščių kortos rankoje</t>
   </si>
   <si>
     <t xml:space="preserve">[card] RANKOJE</t>
@@ -4753,7 +4777,7 @@
     <t xml:space="preserve">Birds Worth over 4 Points</t>
   </si>
   <si>
-    <t xml:space="preserve">PAUKŠČIAI, KURIŲ VERTĖ YRA DAUGIAU NEI 4 TAŠKAI</t>
+    <t xml:space="preserve">Paukščiai, kurių vertė yra daugiau nei 4 taškai</t>
   </si>
   <si>
     <r>
@@ -4783,7 +4807,7 @@
     <t xml:space="preserve">Birds with No Eggs</t>
   </si>
   <si>
-    <t xml:space="preserve">PAUKŠČIAI BE KIAUŠINIŲ</t>
+    <t xml:space="preserve">Paukščiai be kiaušinių</t>
   </si>
   <si>
     <t xml:space="preserve">[bird] BE [egg]</t>
@@ -4795,7 +4819,7 @@
     <t xml:space="preserve">Birds in 1 Row</t>
   </si>
   <si>
-    <t xml:space="preserve">PAUKŠČIAI VIENOJE EILĖJE</t>
+    <t xml:space="preserve">Paukščiai vienoje eilėje</t>
   </si>
   <si>
     <t xml:space="preserve">[bird] VIENOJE EILĖJE</t>
@@ -4807,6 +4831,9 @@
     <t xml:space="preserve">Filled Columns</t>
   </si>
   <si>
+    <t xml:space="preserve">Užpildyti stulpeliai</t>
+  </si>
+  <si>
     <t xml:space="preserve">UŽPILDYTI STULPELIAI</t>
   </si>
   <si>
@@ -4816,6 +4843,9 @@
     <t xml:space="preserve">Brown Powers</t>
   </si>
   <si>
+    <t xml:space="preserve">Rudos galios</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUDOS GALIOS</t>
   </si>
   <si>
@@ -4825,7 +4855,7 @@
     <t xml:space="preserve">White &amp; No Powers</t>
   </si>
   <si>
-    <t xml:space="preserve">BALTA* GALIA IR BE GALIOS</t>
+    <t xml:space="preserve">Balta* galia ir be galios</t>
   </si>
   <si>
     <t xml:space="preserve">BALTA GALIA IR BE GALIOS</t>
@@ -4837,9 +4867,6 @@
     <t xml:space="preserve">Birds with Tucked Cards</t>
   </si>
   <si>
-    <t xml:space="preserve">PAUKŠČIAI SU PAKIŠTOMIS KORTOMIS</t>
-  </si>
-  <si>
     <t xml:space="preserve">[flocking] PAUKŠČIAI SU PAKIŠTOMIS KORTOMIS</t>
   </si>
   <si>
@@ -4849,7 +4876,7 @@
     <t xml:space="preserve">Food Cost of Played Birds</t>
   </si>
   <si>
-    <t xml:space="preserve">PADĖTŲ PAUKŠČIŲ KAINA MAISTU</t>
+    <t xml:space="preserve">Padėtų paukščių kaina maistu</t>
   </si>
   <si>
     <t xml:space="preserve">PADĖTŲ [bird] KAINA MAISTU</t>
@@ -5392,12 +5419,12 @@
   </sheetPr>
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C215" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A215" activeCellId="0" sqref="A215"/>
-      <selection pane="bottomRight" activeCell="F270" activeCellId="0" sqref="F270"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B384" activeCellId="0" sqref="B384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8217,7 +8244,7 @@
         <v>442</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>287</v>
+        <v>443</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>288</v>
@@ -8232,16 +8259,16 @@
         <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>321</v>
@@ -8256,19 +8283,19 @@
         <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>171</v>
@@ -8280,22 +8307,22 @@
         <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I113" s="1"/>
     </row>
@@ -8304,22 +8331,22 @@
         <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I114" s="1"/>
     </row>
@@ -8328,16 +8355,16 @@
         <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>311</v>
@@ -8352,16 +8379,16 @@
         <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>210</v>
@@ -8376,19 +8403,19 @@
         <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>439</v>
@@ -8400,19 +8427,19 @@
         <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>238</v>
@@ -8426,19 +8453,19 @@
         <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I119" s="1"/>
       <c r="K119" s="1"/>
@@ -8448,19 +8475,19 @@
         <v>120</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>238</v>
@@ -8472,22 +8499,22 @@
         <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I121" s="1"/>
     </row>
@@ -8496,19 +8523,19 @@
         <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>317</v>
@@ -8523,19 +8550,19 @@
         <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>181</v>
@@ -8547,16 +8574,16 @@
         <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>45</v>
@@ -8571,16 +8598,16 @@
         <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>36</v>
@@ -8595,16 +8622,16 @@
         <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>142</v>
@@ -8621,22 +8648,22 @@
         <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>17</v>
@@ -8647,19 +8674,19 @@
         <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>363</v>
@@ -8672,19 +8699,19 @@
         <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>114</v>
@@ -8696,16 +8723,16 @@
         <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>95</v>
@@ -8719,22 +8746,22 @@
         <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K131" s="1"/>
     </row>
@@ -8743,19 +8770,19 @@
         <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>405</v>
@@ -8769,19 +8796,19 @@
         <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>17</v>
@@ -8795,22 +8822,22 @@
         <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>17</v>
@@ -8821,19 +8848,19 @@
         <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>405</v>
@@ -8847,19 +8874,19 @@
         <v>136</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>114</v>
@@ -8873,19 +8900,19 @@
         <v>137</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8893,22 +8920,22 @@
         <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8916,16 +8943,16 @@
         <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>85</v>
@@ -8942,19 +8969,19 @@
         <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>114</v>
@@ -8965,19 +8992,19 @@
         <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>17</v>
@@ -8988,19 +9015,19 @@
         <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>317</v>
@@ -9014,16 +9041,16 @@
         <v>143</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>287</v>
@@ -9040,16 +9067,16 @@
         <v>144</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>270</v>
@@ -9063,19 +9090,19 @@
         <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>238</v>
@@ -9086,22 +9113,22 @@
         <v>146</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>17</v>
@@ -9112,22 +9139,22 @@
         <v>147</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>17</v>
@@ -9138,22 +9165,22 @@
         <v>148</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>17</v>
@@ -9164,16 +9191,16 @@
         <v>149</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J149" s="4" t="s">
         <v>17</v>
@@ -9187,22 +9214,22 @@
         <v>150</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>17</v>
@@ -9214,16 +9241,16 @@
         <v>151</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>31</v>
@@ -9240,19 +9267,19 @@
         <v>152</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9260,19 +9287,19 @@
         <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>405</v>
@@ -9283,19 +9310,19 @@
         <v>154</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>81</v>
@@ -9309,19 +9336,19 @@
         <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>17</v>
@@ -9332,16 +9359,16 @@
         <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>263</v>
@@ -9355,22 +9382,22 @@
         <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9378,16 +9405,16 @@
         <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>85</v>
@@ -9401,22 +9428,22 @@
         <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>17</v>
@@ -9430,16 +9457,16 @@
         <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>135</v>
@@ -9455,16 +9482,16 @@
         <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>130</v>
@@ -9481,19 +9508,19 @@
         <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>181</v>
@@ -9504,19 +9531,19 @@
         <v>163</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>171</v>
@@ -9527,19 +9554,19 @@
         <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>16</v>
@@ -9554,16 +9581,16 @@
         <v>165</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>316</v>
@@ -9580,19 +9607,19 @@
         <v>166</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>176</v>
@@ -9603,16 +9630,16 @@
         <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>45</v>
@@ -9632,22 +9659,22 @@
         <v>168</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="I168" s="4" t="s">
         <v>17</v>
@@ -9661,16 +9688,16 @@
         <v>169</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>321</v>
@@ -9684,16 +9711,16 @@
         <v>170</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>413</v>
@@ -9713,16 +9740,16 @@
         <v>171</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>263</v>
@@ -9739,16 +9766,16 @@
         <v>172</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>251</v>
@@ -9759,22 +9786,22 @@
         <v>173</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9782,16 +9809,16 @@
         <v>174</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>251</v>
@@ -9806,19 +9833,19 @@
         <v>175</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I175" s="1"/>
     </row>
@@ -9827,16 +9854,16 @@
         <v>176</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>152</v>
@@ -9851,19 +9878,19 @@
         <v>177</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>17</v>
@@ -9874,16 +9901,16 @@
         <v>178</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>210</v>
@@ -9898,16 +9925,16 @@
         <v>179</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>113</v>
@@ -9924,22 +9951,22 @@
         <v>180</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>17</v>
@@ -9950,16 +9977,16 @@
         <v>181</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>258</v>
@@ -9977,19 +10004,19 @@
         <v>182</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9997,16 +10024,16 @@
         <v>183</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>85</v>
@@ -10020,19 +10047,19 @@
         <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>17</v>
@@ -10046,22 +10073,22 @@
         <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>17</v>
@@ -10072,19 +10099,19 @@
         <v>186</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>114</v>
@@ -10096,16 +10123,16 @@
         <v>187</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>384</v>
@@ -10125,22 +10152,22 @@
         <v>188</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H188" s="4" t="s">
         <v>17</v>
@@ -10151,16 +10178,16 @@
         <v>189</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>395</v>
@@ -10174,16 +10201,16 @@
         <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10191,16 +10218,16 @@
         <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>258</v>
@@ -10218,16 +10245,16 @@
         <v>192</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>31</v>
@@ -10247,19 +10274,19 @@
         <v>193</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>32</v>
@@ -10270,19 +10297,19 @@
         <v>194</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>17</v>
@@ -10294,16 +10321,16 @@
         <v>195</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>321</v>
@@ -10320,16 +10347,16 @@
         <v>196</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>180</v>
@@ -10347,19 +10374,19 @@
         <v>197</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>171</v>
@@ -10372,16 +10399,16 @@
         <v>198</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>15</v>
@@ -10404,16 +10431,16 @@
         <v>199</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>384</v>
@@ -10431,16 +10458,16 @@
         <v>200</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>263</v>
@@ -10459,16 +10486,16 @@
         <v>201</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>85</v>
@@ -10486,16 +10513,16 @@
         <v>202</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>404</v>
@@ -10515,16 +10542,16 @@
         <v>203</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>15</v>
@@ -10544,19 +10571,19 @@
         <v>204</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>17</v>
@@ -10570,16 +10597,16 @@
         <v>205</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>113</v>
@@ -10599,16 +10626,16 @@
         <v>206</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>113</v>
@@ -10627,16 +10654,16 @@
         <v>207</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>219</v>
@@ -10656,16 +10683,16 @@
         <v>208</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>31</v>
@@ -10680,19 +10707,19 @@
         <v>209</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>17</v>
@@ -10706,16 +10733,16 @@
         <v>210</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>85</v>
@@ -10733,16 +10760,16 @@
         <v>211</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>404</v>
@@ -10760,16 +10787,16 @@
         <v>212</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>75</v>
@@ -10785,16 +10812,16 @@
         <v>213</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>384</v>
@@ -10814,19 +10841,19 @@
         <v>214</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10834,16 +10861,16 @@
         <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>157</v>
@@ -10860,16 +10887,16 @@
         <v>216</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>413</v>
@@ -10887,22 +10914,22 @@
         <v>217</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="J217" s="1"/>
     </row>
@@ -10911,19 +10938,19 @@
         <v>218</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>81</v>
@@ -10937,16 +10964,16 @@
         <v>219</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>251</v>
@@ -10957,16 +10984,16 @@
         <v>220</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>424</v>
@@ -10980,19 +11007,19 @@
         <v>221</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>363</v>
@@ -11004,19 +11031,19 @@
         <v>222</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11024,16 +11051,16 @@
         <v>223</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>71</v>
@@ -11048,19 +11075,19 @@
         <v>224</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>181</v>
@@ -11074,16 +11101,16 @@
         <v>225</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>130</v>
@@ -11097,16 +11124,16 @@
         <v>226</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>85</v>
@@ -11120,16 +11147,16 @@
         <v>227</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>258</v>
@@ -11143,19 +11170,19 @@
         <v>228</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J228" s="1"/>
     </row>
@@ -11164,16 +11191,16 @@
         <v>229</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>85</v>
@@ -11190,19 +11217,19 @@
         <v>230</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>352</v>
@@ -11217,16 +11244,16 @@
         <v>231</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>15</v>
@@ -11246,16 +11273,16 @@
         <v>232</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>113</v>
@@ -11272,19 +11299,19 @@
         <v>233</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H233" s="4" t="s">
         <v>17</v>
@@ -11295,16 +11322,16 @@
         <v>234</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>31</v>
@@ -11321,16 +11348,16 @@
         <v>235</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11338,16 +11365,16 @@
         <v>236</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>404</v>
@@ -11367,16 +11394,16 @@
         <v>237</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>147</v>
@@ -11391,19 +11418,19 @@
         <v>238</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>32</v>
@@ -11417,16 +11444,16 @@
         <v>239</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>31</v>
@@ -11446,22 +11473,22 @@
         <v>240</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>17</v>
@@ -11472,19 +11499,19 @@
         <v>241</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>17</v>
@@ -11495,16 +11522,16 @@
         <v>242</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>185</v>
@@ -11518,22 +11545,22 @@
         <v>243</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H243" s="1"/>
       <c r="K243" s="1" t="s">
@@ -11545,22 +11572,22 @@
         <v>244</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>17</v>
@@ -11574,16 +11601,16 @@
         <v>245</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>263</v>
@@ -11602,16 +11629,16 @@
         <v>246</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>130</v>
@@ -11629,16 +11656,16 @@
         <v>247</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>71</v>
@@ -11654,16 +11681,16 @@
         <v>248</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>185</v>
@@ -11676,19 +11703,19 @@
         <v>249</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>32</v>
@@ -11705,16 +11732,16 @@
         <v>250</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>85</v>
@@ -11731,16 +11758,16 @@
         <v>251</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11748,16 +11775,16 @@
         <v>252</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>71</v>
@@ -11774,16 +11801,16 @@
         <v>253</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>258</v>
@@ -11801,22 +11828,22 @@
         <v>254</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H254" s="4" t="s">
         <v>17</v>
@@ -11833,16 +11860,16 @@
         <v>255</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>384</v>
@@ -11859,16 +11886,16 @@
         <v>256</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>85</v>
@@ -11885,16 +11912,16 @@
         <v>257</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>195</v>
@@ -11911,16 +11938,16 @@
         <v>258</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>226</v>
@@ -11943,16 +11970,16 @@
         <v>259</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>130</v>
@@ -11968,16 +11995,16 @@
         <v>260</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>219</v>
@@ -11997,16 +12024,16 @@
         <v>261</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>31</v>
@@ -12022,22 +12049,22 @@
         <v>262</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>17</v>
@@ -12048,13 +12075,13 @@
         <v>263</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="J263" s="1"/>
     </row>
@@ -12063,13 +12090,13 @@
         <v>264</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D264" s="3" t="s">
         <v>977</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>976</v>
       </c>
       <c r="I264" s="1"/>
     </row>
@@ -12078,13 +12105,13 @@
         <v>265</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I265" s="1"/>
     </row>
@@ -12093,13 +12120,13 @@
         <v>266</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I266" s="1"/>
     </row>
@@ -12108,13 +12135,13 @@
         <v>267</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I267" s="1"/>
     </row>
@@ -12123,13 +12150,13 @@
         <v>268</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I268" s="1"/>
     </row>
@@ -12138,13 +12165,13 @@
         <v>269</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I269" s="1"/>
     </row>
@@ -12153,13 +12180,13 @@
         <v>270</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I270" s="1"/>
     </row>
@@ -12168,13 +12195,13 @@
         <v>271</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I271" s="1"/>
     </row>
@@ -12183,13 +12210,13 @@
         <v>272</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I272" s="1"/>
     </row>
@@ -12198,13 +12225,13 @@
         <v>273</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K273" s="1"/>
     </row>
@@ -12213,13 +12240,13 @@
         <v>274</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K274" s="1"/>
     </row>
@@ -12228,13 +12255,13 @@
         <v>275</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H275" s="1"/>
       <c r="K275" s="1"/>
@@ -12244,13 +12271,13 @@
         <v>276</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="J276" s="1"/>
     </row>
@@ -12259,13 +12286,13 @@
         <v>277</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12273,13 +12300,13 @@
         <v>278</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K278" s="1"/>
     </row>
@@ -12288,13 +12315,13 @@
         <v>279</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12302,13 +12329,13 @@
         <v>280</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12316,13 +12343,13 @@
         <v>281</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="J281" s="1"/>
     </row>
@@ -12331,13 +12358,13 @@
         <v>282</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H282" s="1"/>
     </row>
@@ -12346,13 +12373,13 @@
         <v>283</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K283" s="1"/>
     </row>
@@ -12361,13 +12388,13 @@
         <v>284</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I284" s="1"/>
       <c r="K284" s="1"/>
@@ -12377,13 +12404,13 @@
         <v>285</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I285" s="1"/>
     </row>
@@ -12392,13 +12419,13 @@
         <v>286</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12406,13 +12433,13 @@
         <v>287</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12420,13 +12447,13 @@
         <v>288</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H288" s="1"/>
       <c r="K288" s="1"/>
@@ -12436,13 +12463,13 @@
         <v>289</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="J289" s="1"/>
     </row>
@@ -12451,13 +12478,13 @@
         <v>290</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K290" s="1"/>
     </row>
@@ -12466,13 +12493,13 @@
         <v>291</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K291" s="1"/>
     </row>
@@ -12481,13 +12508,13 @@
         <v>292</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K292" s="1"/>
     </row>
@@ -12496,13 +12523,13 @@
         <v>293</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K293" s="1"/>
     </row>
@@ -12511,13 +12538,13 @@
         <v>294</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K294" s="1"/>
     </row>
@@ -12526,13 +12553,13 @@
         <v>295</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H295" s="1"/>
       <c r="K295" s="1"/>
@@ -12542,13 +12569,13 @@
         <v>296</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
@@ -12558,13 +12585,13 @@
         <v>297</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="J297" s="1"/>
     </row>
@@ -12573,13 +12600,13 @@
         <v>298</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12587,13 +12614,13 @@
         <v>299</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12601,13 +12628,13 @@
         <v>300</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12615,13 +12642,13 @@
         <v>301</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12629,13 +12656,13 @@
         <v>302</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12643,13 +12670,13 @@
         <v>303</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12657,13 +12684,13 @@
         <v>304</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12671,13 +12698,13 @@
         <v>305</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="J305" s="1"/>
     </row>
@@ -12686,13 +12713,13 @@
         <v>306</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12700,13 +12727,13 @@
         <v>307</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12714,13 +12741,13 @@
         <v>308</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12728,13 +12755,13 @@
         <v>309</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="J309" s="1"/>
     </row>
@@ -12743,13 +12770,13 @@
         <v>310</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I310" s="1"/>
     </row>
@@ -12758,13 +12785,13 @@
         <v>311</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12772,13 +12799,13 @@
         <v>312</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12786,13 +12813,13 @@
         <v>313</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H313" s="1"/>
     </row>
@@ -12801,13 +12828,13 @@
         <v>314</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12815,13 +12842,13 @@
         <v>315</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12829,13 +12856,13 @@
         <v>316</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I316" s="1"/>
     </row>
@@ -12844,13 +12871,13 @@
         <v>317</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12858,13 +12885,13 @@
         <v>318</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I318" s="1"/>
       <c r="K318" s="1"/>
@@ -12874,13 +12901,13 @@
         <v>319</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
@@ -12891,13 +12918,13 @@
         <v>320</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I320" s="1"/>
       <c r="K320" s="1"/>
@@ -12907,13 +12934,13 @@
         <v>321</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12921,13 +12948,13 @@
         <v>322</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="J322" s="1"/>
     </row>
@@ -12936,13 +12963,13 @@
         <v>323</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12950,13 +12977,13 @@
         <v>324</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H324" s="1"/>
       <c r="K324" s="1"/>
@@ -12966,13 +12993,13 @@
         <v>325</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I325" s="1"/>
     </row>
@@ -12981,13 +13008,13 @@
         <v>326</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="J326" s="1"/>
     </row>
@@ -12996,13 +13023,13 @@
         <v>327</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13010,13 +13037,13 @@
         <v>328</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13024,13 +13051,13 @@
         <v>329</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H329" s="1"/>
       <c r="K329" s="1"/>
@@ -13040,13 +13067,13 @@
         <v>330</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H330" s="1"/>
       <c r="K330" s="1"/>
@@ -13056,13 +13083,13 @@
         <v>331</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H331" s="1"/>
       <c r="K331" s="1"/>
@@ -13072,13 +13099,13 @@
         <v>332</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H332" s="1"/>
       <c r="K332" s="1"/>
@@ -13088,13 +13115,13 @@
         <v>333</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H333" s="1"/>
       <c r="K333" s="1"/>
@@ -13104,13 +13131,13 @@
         <v>334</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13118,13 +13145,13 @@
         <v>335</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H335" s="1"/>
     </row>
@@ -13133,13 +13160,13 @@
         <v>336</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K336" s="1"/>
     </row>
@@ -13148,13 +13175,13 @@
         <v>337</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K337" s="1"/>
     </row>
@@ -13163,13 +13190,13 @@
         <v>338</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="K338" s="1"/>
     </row>
@@ -13178,13 +13205,13 @@
         <v>339</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13192,13 +13219,13 @@
         <v>340</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H340" s="1"/>
       <c r="K340" s="1"/>
@@ -13208,13 +13235,13 @@
         <v>341</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I341" s="1"/>
     </row>
@@ -13223,13 +13250,13 @@
         <v>342</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I342" s="1"/>
     </row>
@@ -13238,13 +13265,13 @@
         <v>343</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13252,13 +13279,13 @@
         <v>344</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13266,13 +13293,13 @@
         <v>345</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13280,13 +13307,13 @@
         <v>346</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13294,13 +13321,13 @@
         <v>347</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H347" s="1"/>
       <c r="K347" s="1"/>
@@ -13310,13 +13337,13 @@
         <v>348</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13324,13 +13351,13 @@
         <v>349</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H349" s="1"/>
       <c r="K349" s="1"/>
@@ -13340,13 +13367,13 @@
         <v>350</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13354,13 +13381,13 @@
         <v>351</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H351" s="1"/>
     </row>
@@ -13369,13 +13396,13 @@
         <v>352</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13383,13 +13410,13 @@
         <v>353</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
@@ -13400,13 +13427,13 @@
         <v>354</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H354" s="1"/>
       <c r="K354" s="1"/>
@@ -13416,13 +13443,13 @@
         <v>355</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H355" s="1"/>
       <c r="K355" s="1"/>
@@ -13432,13 +13459,13 @@
         <v>356</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H356" s="1"/>
     </row>
@@ -13447,13 +13474,13 @@
         <v>357</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H357" s="1"/>
     </row>
@@ -13462,13 +13489,13 @@
         <v>358</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I358" s="1"/>
       <c r="K358" s="1"/>
@@ -13478,13 +13505,13 @@
         <v>359</v>
       </c>
       <c r="B359" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D359" s="3" t="s">
         <v>1168</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>1167</v>
       </c>
       <c r="I359" s="1"/>
     </row>
@@ -13493,13 +13520,13 @@
         <v>360</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K360" s="1"/>
     </row>
@@ -13508,13 +13535,13 @@
         <v>361</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13522,13 +13549,13 @@
         <v>362</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13536,13 +13563,13 @@
         <v>363</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K363" s="1"/>
     </row>
@@ -13551,13 +13578,13 @@
         <v>364</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K364" s="1"/>
     </row>
@@ -13566,13 +13593,13 @@
         <v>365</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H365" s="1"/>
       <c r="K365" s="1"/>
@@ -13582,13 +13609,13 @@
         <v>366</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K366" s="1"/>
     </row>
@@ -13597,13 +13624,13 @@
         <v>367</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13611,13 +13638,13 @@
         <v>368</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13625,13 +13652,13 @@
         <v>369</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K369" s="1"/>
     </row>
@@ -13640,13 +13667,13 @@
         <v>370</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K370" s="1"/>
     </row>
@@ -13655,13 +13682,13 @@
         <v>371</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13669,13 +13696,13 @@
         <v>372</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13683,13 +13710,13 @@
         <v>373</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13697,13 +13724,13 @@
         <v>374</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13711,13 +13738,13 @@
         <v>375</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K375" s="1"/>
     </row>
@@ -13726,13 +13753,13 @@
         <v>376</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13740,13 +13767,13 @@
         <v>377</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H377" s="1"/>
     </row>
@@ -13755,13 +13782,13 @@
         <v>378</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H378" s="1"/>
     </row>
@@ -13770,13 +13797,13 @@
         <v>379</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I379" s="1"/>
     </row>
@@ -13785,13 +13812,13 @@
         <v>380</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I380" s="1"/>
     </row>
@@ -13800,13 +13827,13 @@
         <v>381</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I381" s="1"/>
     </row>
@@ -13815,13 +13842,13 @@
         <v>382</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I382" s="1"/>
     </row>
@@ -13830,13 +13857,13 @@
         <v>383</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I383" s="1"/>
     </row>
@@ -13845,13 +13872,13 @@
         <v>384</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I384" s="1"/>
     </row>
@@ -13860,13 +13887,13 @@
         <v>385</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I385" s="1"/>
     </row>
@@ -13875,13 +13902,13 @@
         <v>386</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I386" s="1"/>
     </row>
@@ -13890,13 +13917,13 @@
         <v>387</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K387" s="1"/>
     </row>
@@ -13905,13 +13932,13 @@
         <v>388</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I388" s="1"/>
     </row>
@@ -13920,13 +13947,13 @@
         <v>389</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K389" s="1"/>
     </row>
@@ -13935,13 +13962,13 @@
         <v>390</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13949,13 +13976,13 @@
         <v>391</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13963,13 +13990,13 @@
         <v>392</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H392" s="1"/>
       <c r="K392" s="1"/>
@@ -13979,13 +14006,13 @@
         <v>393</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13993,13 +14020,13 @@
         <v>394</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H394" s="1"/>
     </row>
@@ -14008,13 +14035,13 @@
         <v>395</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I395" s="1"/>
     </row>
@@ -14023,13 +14050,13 @@
         <v>396</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14037,13 +14064,13 @@
         <v>397</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14051,13 +14078,13 @@
         <v>398</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K398" s="1"/>
     </row>
@@ -14066,13 +14093,13 @@
         <v>399</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K399" s="1"/>
     </row>
@@ -14081,13 +14108,13 @@
         <v>400</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I400" s="1"/>
     </row>
@@ -14096,13 +14123,13 @@
         <v>401</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14110,13 +14137,13 @@
         <v>402</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H402" s="1"/>
     </row>
@@ -14125,13 +14152,13 @@
         <v>403</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I403" s="1"/>
     </row>
@@ -14140,13 +14167,13 @@
         <v>404</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I404" s="1"/>
     </row>
@@ -14155,13 +14182,13 @@
         <v>405</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H405" s="1"/>
     </row>
@@ -14170,13 +14197,13 @@
         <v>406</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14184,13 +14211,13 @@
         <v>407</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14198,13 +14225,13 @@
         <v>408</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14212,13 +14239,13 @@
         <v>409</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14226,13 +14253,13 @@
         <v>410</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H410" s="1"/>
       <c r="K410" s="1"/>
@@ -14242,13 +14269,13 @@
         <v>411</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I411" s="1"/>
     </row>
@@ -14257,13 +14284,13 @@
         <v>412</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I412" s="1"/>
     </row>
@@ -14272,13 +14299,13 @@
         <v>413</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I413" s="1"/>
     </row>
@@ -14287,13 +14314,13 @@
         <v>414</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K414" s="1"/>
     </row>
@@ -14302,13 +14329,13 @@
         <v>415</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K415" s="1"/>
     </row>
@@ -14317,13 +14344,13 @@
         <v>416</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K416" s="1"/>
     </row>
@@ -14332,13 +14359,13 @@
         <v>417</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I417" s="1"/>
       <c r="K417" s="1"/>
@@ -14348,13 +14375,13 @@
         <v>418</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H418" s="1"/>
       <c r="K418" s="1"/>
@@ -14364,13 +14391,13 @@
         <v>419</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H419" s="1"/>
       <c r="K419" s="1"/>
@@ -14380,13 +14407,13 @@
         <v>420</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H420" s="1"/>
       <c r="K420" s="1"/>
@@ -14396,13 +14423,13 @@
         <v>421</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14410,13 +14437,13 @@
         <v>422</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14424,13 +14451,13 @@
         <v>423</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14438,13 +14465,13 @@
         <v>424</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K424" s="1"/>
     </row>
@@ -14453,13 +14480,13 @@
         <v>425</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K425" s="1"/>
     </row>
@@ -14468,13 +14495,13 @@
         <v>426</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K426" s="1"/>
     </row>
@@ -14483,13 +14510,13 @@
         <v>427</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14497,13 +14524,13 @@
         <v>428</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14511,13 +14538,13 @@
         <v>429</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H429" s="1"/>
     </row>
@@ -14526,13 +14553,13 @@
         <v>430</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14540,13 +14567,13 @@
         <v>431</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14554,13 +14581,13 @@
         <v>432</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H432" s="1"/>
     </row>
@@ -14569,13 +14596,13 @@
         <v>433</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14583,13 +14610,13 @@
         <v>434</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I434" s="1"/>
       <c r="K434" s="1"/>
@@ -14599,13 +14626,13 @@
         <v>435</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="I435" s="1"/>
     </row>
@@ -14614,13 +14641,13 @@
         <v>436</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H436" s="1"/>
     </row>
@@ -14629,13 +14656,13 @@
         <v>437</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14643,13 +14670,13 @@
         <v>438</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14657,13 +14684,13 @@
         <v>439</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K439" s="1"/>
     </row>
@@ -14672,13 +14699,13 @@
         <v>440</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K440" s="1"/>
     </row>
@@ -14687,13 +14714,13 @@
         <v>441</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H441" s="1"/>
       <c r="K441" s="1"/>
@@ -14703,13 +14730,13 @@
         <v>442</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H442" s="1"/>
       <c r="K442" s="1"/>
@@ -14719,13 +14746,13 @@
         <v>443</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H443" s="1"/>
       <c r="K443" s="1"/>
@@ -14735,13 +14762,13 @@
         <v>444</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H444" s="1"/>
       <c r="K444" s="1"/>
@@ -14751,13 +14778,13 @@
         <v>445</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14765,13 +14792,13 @@
         <v>446</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K446" s="1"/>
     </row>
@@ -14780,13 +14807,13 @@
         <v>447</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
@@ -14810,12 +14837,12 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14824,8 +14851,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="85.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="163.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="44.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="92.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="40.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.88"/>
   </cols>
@@ -14841,16 +14868,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -14867,19 +14894,19 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14887,22 +14914,22 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14910,22 +14937,22 @@
         <v>1004</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14933,22 +14960,22 @@
         <v>1005</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14956,22 +14983,22 @@
         <v>1006</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14985,19 +15012,19 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15005,25 +15032,25 @@
         <v>1010</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15031,25 +15058,25 @@
         <v>1011</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15057,22 +15084,22 @@
         <v>1013</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15080,22 +15107,22 @@
         <v>1014</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15103,22 +15130,22 @@
         <v>1015</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15126,22 +15153,22 @@
         <v>1016</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15155,19 +15182,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15175,22 +15202,22 @@
         <v>1018</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15198,25 +15225,25 @@
         <v>1019</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15224,19 +15251,22 @@
         <v>1020</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15244,22 +15274,22 @@
         <v>1021</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15267,22 +15297,22 @@
         <v>1022</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15296,19 +15326,19 @@
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15316,25 +15346,25 @@
         <v>1024</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15342,22 +15372,22 @@
         <v>1025</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15365,22 +15395,22 @@
         <v>1026</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15388,22 +15418,22 @@
         <v>1027</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15411,22 +15441,22 @@
         <v>1028</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15434,22 +15464,22 @@
         <v>1029</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15457,25 +15487,25 @@
         <v>1030</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15483,22 +15513,22 @@
         <v>1002</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15506,19 +15536,19 @@
         <v>1003</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15526,19 +15556,19 @@
         <v>1008</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15546,19 +15576,19 @@
         <v>1009</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15566,22 +15596,22 @@
         <v>1012</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15589,10 +15619,22 @@
         <v>1032</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>89</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15600,10 +15642,19 @@
         <v>1033</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>89</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15611,10 +15662,10 @@
         <v>1034</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1490</v>
+        <v>1498</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15622,10 +15673,10 @@
         <v>1035</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1491</v>
+        <v>1499</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15633,10 +15684,10 @@
         <v>1036</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1492</v>
+        <v>1500</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15644,10 +15695,10 @@
         <v>1037</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1493</v>
+        <v>1501</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15655,10 +15706,10 @@
         <v>1038</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1494</v>
+        <v>1502</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15666,10 +15717,10 @@
         <v>1039</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1495</v>
+        <v>1503</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -15682,10 +15733,10 @@
         <v>1040</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1496</v>
+        <v>1504</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -15698,10 +15749,10 @@
         <v>1041</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1497</v>
+        <v>1505</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -15714,10 +15765,10 @@
         <v>1042</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1498</v>
+        <v>1506</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -15730,10 +15781,10 @@
         <v>1043</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1499</v>
+        <v>1507</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -15746,10 +15797,10 @@
         <v>1044</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -15762,10 +15813,10 @@
         <v>1045</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1501</v>
+        <v>1509</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -15778,10 +15829,10 @@
         <v>1046</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1502</v>
+        <v>1510</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -15794,10 +15845,10 @@
         <v>1047</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1503</v>
+        <v>1511</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -15810,10 +15861,10 @@
         <v>1048</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1504</v>
+        <v>1512</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -15826,10 +15877,10 @@
         <v>1049</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1505</v>
+        <v>1513</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -15842,10 +15893,10 @@
         <v>1050</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1506</v>
+        <v>1514</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -15858,10 +15909,10 @@
         <v>1051</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1507</v>
+        <v>1515</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -15895,7 +15946,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E35" activeCellId="0" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15919,13 +15970,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>1508</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15933,17 +15984,17 @@
         <v>2000</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1509</v>
+        <v>1517</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
-        <v>1510</v>
+        <v>1518</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>1511</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15951,17 +16002,17 @@
         <v>2001</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1512</v>
+        <v>1520</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>1513</v>
+        <v>1521</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1511</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15969,17 +16020,17 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>1515</v>
+        <v>1523</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>1511</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15987,17 +16038,17 @@
         <v>2013</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>1517</v>
+        <v>1525</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16005,17 +16056,17 @@
         <v>2014</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>1520</v>
+        <v>1528</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16023,17 +16074,17 @@
         <v>2017</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1521</v>
+        <v>1529</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16041,17 +16092,17 @@
         <v>2010</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1523</v>
+        <v>1531</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>1524</v>
+        <v>1532</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>1525</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16059,17 +16110,17 @@
         <v>2008</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1526</v>
+        <v>1534</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9" t="s">
-        <v>1527</v>
+        <v>1535</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1525</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16077,17 +16128,17 @@
         <v>2021</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1528</v>
+        <v>1536</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9" t="s">
-        <v>1529</v>
+        <v>1537</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>1525</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16095,17 +16146,17 @@
         <v>2022</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1530</v>
+        <v>1538</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9" t="s">
-        <v>1531</v>
+        <v>1539</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1525</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16113,17 +16164,17 @@
         <v>2012</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1532</v>
+        <v>1540</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9" t="s">
-        <v>1533</v>
+        <v>1541</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>1534</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16131,17 +16182,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1535</v>
+        <v>1543</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="9" t="s">
-        <v>1536</v>
+        <v>1544</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1534</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16149,17 +16200,17 @@
         <v>2015</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1537</v>
+        <v>1545</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9" t="s">
-        <v>1538</v>
+        <v>1546</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>1534</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16167,17 +16218,17 @@
         <v>2016</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1539</v>
+        <v>1547</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9" t="s">
-        <v>1540</v>
+        <v>1548</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1534</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16185,17 +16236,17 @@
         <v>2023</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1541</v>
+        <v>1549</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9" t="s">
-        <v>1542</v>
+        <v>1550</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>1543</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16203,17 +16254,17 @@
         <v>2024</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1544</v>
+        <v>1552</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9" t="s">
-        <v>1545</v>
+        <v>1553</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>1546</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16221,19 +16272,19 @@
         <v>2020</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1547</v>
+        <v>1555</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1548</v>
+        <v>1556</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1549</v>
+        <v>1557</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>1550</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16241,19 +16292,19 @@
         <v>2003</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1551</v>
+        <v>1559</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1552</v>
+        <v>1560</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1553</v>
+        <v>1561</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>1554</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16261,19 +16312,19 @@
         <v>2004</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1555</v>
+        <v>1563</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1556</v>
+        <v>1564</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>1558</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16281,19 +16332,19 @@
         <v>2006</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1559</v>
+        <v>1567</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>1560</v>
+        <v>1568</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1561</v>
+        <v>1569</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>1562</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16301,19 +16352,19 @@
         <v>2005</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1563</v>
+        <v>1571</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>1564</v>
+        <v>1572</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1565</v>
+        <v>1573</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>1566</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16321,19 +16372,19 @@
         <v>2018</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1567</v>
+        <v>1575</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1568</v>
+        <v>1576</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1568</v>
+        <v>1577</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>1569</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16341,19 +16392,19 @@
         <v>2009</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1570</v>
+        <v>1579</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>1571</v>
+        <v>1580</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1571</v>
+        <v>1581</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>1572</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16361,19 +16412,19 @@
         <v>2025</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1573</v>
+        <v>1583</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>1574</v>
+        <v>1584</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1575</v>
+        <v>1585</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>1576</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16381,19 +16432,19 @@
         <v>2007</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1577</v>
+        <v>1587</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>1578</v>
+        <v>1479</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1579</v>
+        <v>1588</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>1580</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16401,19 +16452,19 @@
         <v>2019</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1581</v>
+        <v>1590</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1582</v>
+        <v>1591</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>1583</v>
+        <v>1592</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>1584</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16421,10 +16472,10 @@
         <v>2031</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1585</v>
+        <v>1594</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
@@ -16435,10 +16486,10 @@
         <v>2030</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1586</v>
+        <v>1595</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
@@ -16449,10 +16500,10 @@
         <v>2033</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1587</v>
+        <v>1596</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
@@ -16463,10 +16514,10 @@
         <v>2032</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1588</v>
+        <v>1597</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -16477,10 +16528,10 @@
         <v>2026</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1589</v>
+        <v>1598</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
@@ -16491,10 +16542,10 @@
         <v>2027</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1590</v>
+        <v>1599</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
@@ -16505,10 +16556,10 @@
         <v>2029</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1591</v>
+        <v>1600</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
@@ -16519,10 +16570,10 @@
         <v>2028</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1592</v>
+        <v>1601</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
@@ -16533,10 +16584,10 @@
         <v>2043</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>1593</v>
+        <v>1602</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -16547,10 +16598,10 @@
         <v>2040</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>1594</v>
+        <v>1603</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -16561,10 +16612,10 @@
         <v>2035</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>1595</v>
+        <v>1604</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -16575,10 +16626,10 @@
         <v>2041</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>1596</v>
+        <v>1605</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -16589,10 +16640,10 @@
         <v>2042</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>1597</v>
+        <v>1606</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -16603,10 +16654,10 @@
         <v>2044</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1598</v>
+        <v>1607</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -16617,10 +16668,10 @@
         <v>2036</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1599</v>
+        <v>1608</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -16631,10 +16682,10 @@
         <v>2034</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1600</v>
+        <v>1609</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -16645,10 +16696,10 @@
         <v>2037</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>1601</v>
+        <v>1610</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -16659,10 +16710,10 @@
         <v>2038</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>1602</v>
+        <v>1611</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -16673,10 +16724,10 @@
         <v>2039</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1603</v>
+        <v>1612</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -16687,10 +16738,10 @@
         <v>2045</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>1604</v>
+        <v>1613</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -16733,55 +16784,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1605</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1606</v>
+        <v>1615</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1607</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1608</v>
+        <v>1617</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1609</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1610</v>
+        <v>1619</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1611</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1612</v>
+        <v>1621</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1613</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1614</v>
+        <v>1623</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1615</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1616</v>
+        <v>1625</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1617</v>
+        <v>1626</v>
       </c>
     </row>
   </sheetData>
@@ -16819,15 +16870,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1618</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1619</v>
+        <v>1628</v>
       </c>
       <c r="B2" s="11" t="n">
         <f aca="false">FALSE()</f>

--- a/i18n/lt.xlsx
+++ b/i18n/lt.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="1629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="1628">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1358,9 +1358,6 @@
   </si>
   <si>
     <t xml:space="preserve">Žalioji meleta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vadovaujantis priedu ir oficialiais </t>
   </si>
   <si>
     <t xml:space="preserve">Eurasian Hobby</t>
@@ -4444,7 +4441,7 @@
     <t xml:space="preserve">Vizionierius</t>
   </si>
   <si>
-    <t xml:space="preserve">Žaidimo pabaigoje jsų turimos nepadėtos paukščių kortos</t>
+    <t xml:space="preserve">Žaidimo pabaigoje jūsų turimos nepadėtos paukščių kortos</t>
   </si>
   <si>
     <t xml:space="preserve">5–7 paukščiai: 4[point]; 8+ paukščiai: 7[point]</t>
@@ -5420,11 +5417,11 @@
   <dimension ref="A1:K447"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B384" activeCellId="0" sqref="B384"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+      <selection pane="bottomRight" activeCell="F110" activeCellId="0" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8244,7 +8241,7 @@
         <v>442</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>443</v>
+        <v>287</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>288</v>
@@ -8259,16 +8256,16 @@
         <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>321</v>
@@ -8283,19 +8280,19 @@
         <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>171</v>
@@ -8307,22 +8304,22 @@
         <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="I113" s="1"/>
     </row>
@@ -8331,22 +8328,22 @@
         <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E114" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="G114" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I114" s="1"/>
     </row>
@@ -8355,16 +8352,16 @@
         <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>311</v>
@@ -8379,16 +8376,16 @@
         <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>210</v>
@@ -8403,19 +8400,19 @@
         <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>439</v>
@@ -8427,19 +8424,19 @@
         <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>238</v>
@@ -8453,19 +8450,19 @@
         <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="I119" s="1"/>
       <c r="K119" s="1"/>
@@ -8475,19 +8472,19 @@
         <v>120</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E120" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>238</v>
@@ -8499,22 +8496,22 @@
         <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E121" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="I121" s="1"/>
     </row>
@@ -8523,19 +8520,19 @@
         <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E122" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>317</v>
@@ -8550,19 +8547,19 @@
         <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>181</v>
@@ -8574,16 +8571,16 @@
         <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>45</v>
@@ -8598,16 +8595,16 @@
         <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>36</v>
@@ -8622,16 +8619,16 @@
         <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>142</v>
@@ -8648,22 +8645,22 @@
         <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>17</v>
@@ -8674,19 +8671,19 @@
         <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>363</v>
@@ -8699,19 +8696,19 @@
         <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>114</v>
@@ -8723,16 +8720,16 @@
         <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>95</v>
@@ -8746,22 +8743,22 @@
         <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="K131" s="1"/>
     </row>
@@ -8770,19 +8767,19 @@
         <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E132" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>405</v>
@@ -8796,19 +8793,19 @@
         <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>17</v>
@@ -8822,22 +8819,22 @@
         <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E134" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>17</v>
@@ -8848,19 +8845,19 @@
         <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="F135" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>405</v>
@@ -8874,19 +8871,19 @@
         <v>136</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="F136" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>114</v>
@@ -8900,19 +8897,19 @@
         <v>137</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E137" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8920,22 +8917,22 @@
         <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E138" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="G138" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8943,16 +8940,16 @@
         <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>85</v>
@@ -8969,19 +8966,19 @@
         <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E140" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>114</v>
@@ -8992,19 +8989,19 @@
         <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141" s="1" t="s">
+      <c r="F141" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>17</v>
@@ -9015,19 +9012,19 @@
         <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E142" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>317</v>
@@ -9041,16 +9038,16 @@
         <v>143</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>287</v>
@@ -9067,16 +9064,16 @@
         <v>144</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>270</v>
@@ -9090,19 +9087,19 @@
         <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>238</v>
@@ -9113,22 +9110,22 @@
         <v>146</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>17</v>
@@ -9139,22 +9136,22 @@
         <v>147</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E147" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>586</v>
-      </c>
       <c r="G147" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>17</v>
@@ -9165,22 +9162,22 @@
         <v>148</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E148" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>590</v>
-      </c>
       <c r="G148" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>17</v>
@@ -9191,16 +9188,16 @@
         <v>149</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="J149" s="4" t="s">
         <v>17</v>
@@ -9214,22 +9211,22 @@
         <v>150</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E150" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>17</v>
@@ -9241,16 +9238,16 @@
         <v>151</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>31</v>
@@ -9267,19 +9264,19 @@
         <v>152</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E152" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9287,19 +9284,19 @@
         <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E153" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>405</v>
@@ -9310,19 +9307,19 @@
         <v>154</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E154" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>81</v>
@@ -9336,19 +9333,19 @@
         <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E155" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>17</v>
@@ -9359,16 +9356,16 @@
         <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>263</v>
@@ -9382,22 +9379,22 @@
         <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>623</v>
-      </c>
       <c r="F157" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9405,16 +9402,16 @@
         <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>85</v>
@@ -9428,22 +9425,22 @@
         <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E159" s="1" t="s">
+      <c r="F159" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="G159" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>17</v>
@@ -9457,16 +9454,16 @@
         <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>135</v>
@@ -9482,16 +9479,16 @@
         <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>637</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>130</v>
@@ -9508,19 +9505,19 @@
         <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>181</v>
@@ -9531,19 +9528,19 @@
         <v>163</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>171</v>
@@ -9554,19 +9551,19 @@
         <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164" s="1" t="s">
+      <c r="F164" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>16</v>
@@ -9581,16 +9578,16 @@
         <v>165</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>316</v>
@@ -9607,19 +9604,19 @@
         <v>166</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E166" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>176</v>
@@ -9630,16 +9627,16 @@
         <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="D167" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>45</v>
@@ -9659,22 +9656,22 @@
         <v>168</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="G168" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="I168" s="4" t="s">
         <v>17</v>
@@ -9688,16 +9685,16 @@
         <v>169</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>321</v>
@@ -9711,16 +9708,16 @@
         <v>170</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>413</v>
@@ -9740,16 +9737,16 @@
         <v>171</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>263</v>
@@ -9766,16 +9763,16 @@
         <v>172</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>251</v>
@@ -9786,22 +9783,22 @@
         <v>173</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E173" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="G173" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9809,16 +9806,16 @@
         <v>174</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>251</v>
@@ -9833,19 +9830,19 @@
         <v>175</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E175" s="1" t="s">
+      <c r="F175" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="I175" s="1"/>
     </row>
@@ -9854,16 +9851,16 @@
         <v>176</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>152</v>
@@ -9878,19 +9875,19 @@
         <v>177</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>17</v>
@@ -9901,16 +9898,16 @@
         <v>178</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>210</v>
@@ -9925,16 +9922,16 @@
         <v>179</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>113</v>
@@ -9951,22 +9948,22 @@
         <v>180</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>704</v>
-      </c>
       <c r="F180" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>17</v>
@@ -9977,16 +9974,16 @@
         <v>181</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>258</v>
@@ -10004,19 +10001,19 @@
         <v>182</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E182" s="1" t="s">
+      <c r="F182" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10024,16 +10021,16 @@
         <v>183</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>714</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>85</v>
@@ -10047,19 +10044,19 @@
         <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E184" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>718</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>17</v>
@@ -10073,22 +10070,22 @@
         <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="G185" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>17</v>
@@ -10099,19 +10096,19 @@
         <v>186</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="D186" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="F186" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>114</v>
@@ -10123,16 +10120,16 @@
         <v>187</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>384</v>
@@ -10152,22 +10149,22 @@
         <v>188</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="D188" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E188" s="1" t="s">
+      <c r="F188" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>733</v>
-      </c>
       <c r="G188" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H188" s="4" t="s">
         <v>17</v>
@@ -10178,16 +10175,16 @@
         <v>189</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>736</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>395</v>
@@ -10201,16 +10198,16 @@
         <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D190" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10218,16 +10215,16 @@
         <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>742</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>258</v>
@@ -10245,16 +10242,16 @@
         <v>192</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>31</v>
@@ -10274,19 +10271,19 @@
         <v>193</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="D193" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E193" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>749</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>32</v>
@@ -10297,19 +10294,19 @@
         <v>194</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="D194" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E194" s="1" t="s">
+      <c r="F194" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>17</v>
@@ -10321,16 +10318,16 @@
         <v>195</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>321</v>
@@ -10347,16 +10344,16 @@
         <v>196</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>180</v>
@@ -10374,19 +10371,19 @@
         <v>197</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>761</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E197" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>763</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>171</v>
@@ -10399,16 +10396,16 @@
         <v>198</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>15</v>
@@ -10431,16 +10428,16 @@
         <v>199</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>384</v>
@@ -10458,16 +10455,16 @@
         <v>200</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>263</v>
@@ -10486,16 +10483,16 @@
         <v>201</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>85</v>
@@ -10513,16 +10510,16 @@
         <v>202</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>404</v>
@@ -10542,16 +10539,16 @@
         <v>203</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>781</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>15</v>
@@ -10571,19 +10568,19 @@
         <v>204</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>783</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E204" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>785</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>17</v>
@@ -10597,16 +10594,16 @@
         <v>205</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>113</v>
@@ -10626,16 +10623,16 @@
         <v>206</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="D206" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>791</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>113</v>
@@ -10654,16 +10651,16 @@
         <v>207</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>794</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>219</v>
@@ -10683,16 +10680,16 @@
         <v>208</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>797</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>31</v>
@@ -10707,19 +10704,19 @@
         <v>209</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="D209" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E209" s="1" t="s">
+      <c r="F209" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>801</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>17</v>
@@ -10733,16 +10730,16 @@
         <v>210</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>85</v>
@@ -10760,16 +10757,16 @@
         <v>211</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>807</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>404</v>
@@ -10787,16 +10784,16 @@
         <v>212</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="D212" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>75</v>
@@ -10812,16 +10809,16 @@
         <v>213</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>813</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>384</v>
@@ -10841,19 +10838,19 @@
         <v>214</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>815</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E214" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10861,16 +10858,16 @@
         <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="D215" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>820</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>157</v>
@@ -10887,16 +10884,16 @@
         <v>216</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>823</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>413</v>
@@ -10914,22 +10911,22 @@
         <v>217</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>825</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E217" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>828</v>
       </c>
       <c r="J217" s="1"/>
     </row>
@@ -10938,19 +10935,19 @@
         <v>218</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="D218" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E218" s="1" t="s">
+      <c r="F218" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>832</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>81</v>
@@ -10964,16 +10961,16 @@
         <v>219</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>834</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>251</v>
@@ -10984,16 +10981,16 @@
         <v>220</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>838</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>424</v>
@@ -11007,19 +11004,19 @@
         <v>221</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>840</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E221" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>842</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>363</v>
@@ -11031,19 +11028,19 @@
         <v>222</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>844</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E222" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F222" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11051,16 +11048,16 @@
         <v>223</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D223" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>849</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>71</v>
@@ -11075,19 +11072,19 @@
         <v>224</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>851</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>181</v>
@@ -11101,16 +11098,16 @@
         <v>225</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="D225" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>855</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>130</v>
@@ -11124,16 +11121,16 @@
         <v>226</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E226" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>85</v>
@@ -11147,16 +11144,16 @@
         <v>227</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="D227" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>861</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>258</v>
@@ -11170,19 +11167,19 @@
         <v>228</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E228" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="D228" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E228" s="1" t="s">
+      <c r="F228" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>865</v>
       </c>
       <c r="J228" s="1"/>
     </row>
@@ -11191,16 +11188,16 @@
         <v>229</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="D229" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E229" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>868</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>85</v>
@@ -11217,19 +11214,19 @@
         <v>230</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>870</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E230" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>352</v>
@@ -11244,16 +11241,16 @@
         <v>231</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E231" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>875</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>15</v>
@@ -11273,16 +11270,16 @@
         <v>232</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="D232" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>113</v>
@@ -11299,19 +11296,19 @@
         <v>233</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>880</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E233" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="F233" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="H233" s="4" t="s">
         <v>17</v>
@@ -11322,16 +11319,16 @@
         <v>234</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="D234" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E234" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>31</v>
@@ -11348,16 +11345,16 @@
         <v>235</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E235" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11365,16 +11362,16 @@
         <v>236</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>891</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>404</v>
@@ -11394,16 +11391,16 @@
         <v>237</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>147</v>
@@ -11418,19 +11415,19 @@
         <v>238</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>896</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E238" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="F238" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>32</v>
@@ -11444,16 +11441,16 @@
         <v>239</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="D239" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E239" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>31</v>
@@ -11473,22 +11470,22 @@
         <v>240</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="D240" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E240" s="1" t="s">
+      <c r="F240" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>905</v>
-      </c>
       <c r="G240" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>17</v>
@@ -11499,19 +11496,19 @@
         <v>241</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="D241" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>908</v>
-      </c>
       <c r="F241" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>17</v>
@@ -11522,16 +11519,16 @@
         <v>242</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>185</v>
@@ -11545,22 +11542,22 @@
         <v>243</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>913</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F243" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G243" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="H243" s="1"/>
       <c r="K243" s="1" t="s">
@@ -11572,22 +11569,22 @@
         <v>244</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>916</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E244" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F244" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="F244" s="1" t="s">
+      <c r="G244" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>919</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>17</v>
@@ -11601,16 +11598,16 @@
         <v>245</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="D245" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E245" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>922</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>263</v>
@@ -11629,16 +11626,16 @@
         <v>246</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="D246" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E246" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>925</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>130</v>
@@ -11656,16 +11653,16 @@
         <v>247</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="D247" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>928</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>71</v>
@@ -11681,16 +11678,16 @@
         <v>248</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>185</v>
@@ -11703,19 +11700,19 @@
         <v>249</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>933</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E249" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="F249" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>935</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>32</v>
@@ -11732,16 +11729,16 @@
         <v>250</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="D250" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E250" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>938</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>85</v>
@@ -11758,16 +11755,16 @@
         <v>251</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="D251" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E251" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11775,16 +11772,16 @@
         <v>252</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="D252" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E252" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>944</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>71</v>
@@ -11801,16 +11798,16 @@
         <v>253</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>947</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>258</v>
@@ -11828,22 +11825,22 @@
         <v>254</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>949</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F254" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G254" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="H254" s="4" t="s">
         <v>17</v>
@@ -11860,16 +11857,16 @@
         <v>255</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>953</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>384</v>
@@ -11886,16 +11883,16 @@
         <v>256</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="D256" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E256" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>956</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>85</v>
@@ -11912,16 +11909,16 @@
         <v>257</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>959</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>195</v>
@@ -11938,16 +11935,16 @@
         <v>258</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="D258" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>962</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>226</v>
@@ -11970,16 +11967,16 @@
         <v>259</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E259" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>965</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>130</v>
@@ -11995,16 +11992,16 @@
         <v>260</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="D260" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>968</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>219</v>
@@ -12024,16 +12021,16 @@
         <v>261</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="D261" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E261" s="1" t="s">
         <v>970</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>971</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>31</v>
@@ -12049,22 +12046,22 @@
         <v>262</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>973</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F262" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G262" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="G262" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>17</v>
@@ -12075,13 +12072,13 @@
         <v>263</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="3" t="s">
         <v>976</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>977</v>
       </c>
       <c r="J263" s="1"/>
     </row>
@@ -12090,13 +12087,13 @@
         <v>264</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="C264" s="1" t="s">
-        <v>979</v>
-      </c>
       <c r="D264" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I264" s="1"/>
     </row>
@@ -12105,13 +12102,13 @@
         <v>265</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="C265" s="1" t="s">
-        <v>981</v>
-      </c>
       <c r="D265" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I265" s="1"/>
     </row>
@@ -12120,13 +12117,13 @@
         <v>266</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C266" s="1" t="s">
-        <v>983</v>
-      </c>
       <c r="D266" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I266" s="1"/>
     </row>
@@ -12135,13 +12132,13 @@
         <v>267</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>985</v>
-      </c>
       <c r="D267" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I267" s="1"/>
     </row>
@@ -12150,13 +12147,13 @@
         <v>268</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="C268" s="1" t="s">
-        <v>987</v>
-      </c>
       <c r="D268" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I268" s="1"/>
     </row>
@@ -12165,13 +12162,13 @@
         <v>269</v>
       </c>
       <c r="B269" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>989</v>
-      </c>
       <c r="D269" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I269" s="1"/>
     </row>
@@ -12180,13 +12177,13 @@
         <v>270</v>
       </c>
       <c r="B270" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="C270" s="1" t="s">
-        <v>991</v>
-      </c>
       <c r="D270" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I270" s="1"/>
     </row>
@@ -12195,13 +12192,13 @@
         <v>271</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>993</v>
-      </c>
       <c r="D271" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I271" s="1"/>
     </row>
@@ -12210,13 +12207,13 @@
         <v>272</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C272" s="1" t="s">
-        <v>995</v>
-      </c>
       <c r="D272" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I272" s="1"/>
     </row>
@@ -12225,13 +12222,13 @@
         <v>273</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>997</v>
-      </c>
       <c r="D273" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K273" s="1"/>
     </row>
@@ -12240,13 +12237,13 @@
         <v>274</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>999</v>
-      </c>
       <c r="D274" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K274" s="1"/>
     </row>
@@ -12255,13 +12252,13 @@
         <v>275</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>1001</v>
-      </c>
       <c r="D275" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H275" s="1"/>
       <c r="K275" s="1"/>
@@ -12271,13 +12268,13 @@
         <v>276</v>
       </c>
       <c r="B276" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="C276" s="1" t="s">
-        <v>1003</v>
-      </c>
       <c r="D276" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J276" s="1"/>
     </row>
@@ -12286,13 +12283,13 @@
         <v>277</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="C277" s="1" t="s">
-        <v>1005</v>
-      </c>
       <c r="D277" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12300,13 +12297,13 @@
         <v>278</v>
       </c>
       <c r="B278" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>1007</v>
-      </c>
       <c r="D278" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K278" s="1"/>
     </row>
@@ -12315,13 +12312,13 @@
         <v>279</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>1009</v>
-      </c>
       <c r="D279" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12329,13 +12326,13 @@
         <v>280</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>1011</v>
-      </c>
       <c r="D280" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12343,13 +12340,13 @@
         <v>281</v>
       </c>
       <c r="B281" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>1013</v>
-      </c>
       <c r="D281" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J281" s="1"/>
     </row>
@@ -12358,13 +12355,13 @@
         <v>282</v>
       </c>
       <c r="B282" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="C282" s="1" t="s">
-        <v>1015</v>
-      </c>
       <c r="D282" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H282" s="1"/>
     </row>
@@ -12373,13 +12370,13 @@
         <v>283</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>1017</v>
-      </c>
       <c r="D283" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K283" s="1"/>
     </row>
@@ -12388,13 +12385,13 @@
         <v>284</v>
       </c>
       <c r="B284" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>1019</v>
-      </c>
       <c r="D284" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I284" s="1"/>
       <c r="K284" s="1"/>
@@ -12404,13 +12401,13 @@
         <v>285</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>1021</v>
-      </c>
       <c r="D285" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I285" s="1"/>
     </row>
@@ -12419,13 +12416,13 @@
         <v>286</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C286" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="D286" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12433,13 +12430,13 @@
         <v>287</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C287" s="1" t="s">
-        <v>1025</v>
-      </c>
       <c r="D287" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12447,13 +12444,13 @@
         <v>288</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="C288" s="1" t="s">
-        <v>1027</v>
-      </c>
       <c r="D288" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H288" s="1"/>
       <c r="K288" s="1"/>
@@ -12463,13 +12460,13 @@
         <v>289</v>
       </c>
       <c r="B289" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C289" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="C289" s="1" t="s">
-        <v>1029</v>
-      </c>
       <c r="D289" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J289" s="1"/>
     </row>
@@ -12478,13 +12475,13 @@
         <v>290</v>
       </c>
       <c r="B290" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C290" s="1" t="s">
-        <v>1031</v>
-      </c>
       <c r="D290" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K290" s="1"/>
     </row>
@@ -12493,13 +12490,13 @@
         <v>291</v>
       </c>
       <c r="B291" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="C291" s="1" t="s">
-        <v>1033</v>
-      </c>
       <c r="D291" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K291" s="1"/>
     </row>
@@ -12508,13 +12505,13 @@
         <v>292</v>
       </c>
       <c r="B292" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="C292" s="1" t="s">
-        <v>1035</v>
-      </c>
       <c r="D292" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K292" s="1"/>
     </row>
@@ -12523,13 +12520,13 @@
         <v>293</v>
       </c>
       <c r="B293" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C293" s="1" t="s">
-        <v>1037</v>
-      </c>
       <c r="D293" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K293" s="1"/>
     </row>
@@ -12538,13 +12535,13 @@
         <v>294</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>1039</v>
-      </c>
       <c r="D294" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K294" s="1"/>
     </row>
@@ -12553,13 +12550,13 @@
         <v>295</v>
       </c>
       <c r="B295" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C295" s="1" t="s">
-        <v>1041</v>
-      </c>
       <c r="D295" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H295" s="1"/>
       <c r="K295" s="1"/>
@@ -12569,13 +12566,13 @@
         <v>296</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C296" s="1" t="s">
-        <v>1043</v>
-      </c>
       <c r="D296" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
@@ -12585,13 +12582,13 @@
         <v>297</v>
       </c>
       <c r="B297" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>1045</v>
-      </c>
       <c r="D297" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J297" s="1"/>
     </row>
@@ -12600,13 +12597,13 @@
         <v>298</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="C298" s="1" t="s">
-        <v>1047</v>
-      </c>
       <c r="D298" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12614,13 +12611,13 @@
         <v>299</v>
       </c>
       <c r="B299" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="C299" s="1" t="s">
-        <v>1049</v>
-      </c>
       <c r="D299" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12628,13 +12625,13 @@
         <v>300</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C300" s="1" t="s">
-        <v>1051</v>
-      </c>
       <c r="D300" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12642,13 +12639,13 @@
         <v>301</v>
       </c>
       <c r="B301" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="C301" s="1" t="s">
-        <v>1053</v>
-      </c>
       <c r="D301" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12656,13 +12653,13 @@
         <v>302</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C302" s="1" t="s">
-        <v>1055</v>
-      </c>
       <c r="D302" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12670,13 +12667,13 @@
         <v>303</v>
       </c>
       <c r="B303" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C303" s="1" t="s">
-        <v>1057</v>
-      </c>
       <c r="D303" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12684,13 +12681,13 @@
         <v>304</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="C304" s="1" t="s">
-        <v>1059</v>
-      </c>
       <c r="D304" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12698,13 +12695,13 @@
         <v>305</v>
       </c>
       <c r="B305" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="C305" s="1" t="s">
-        <v>1061</v>
-      </c>
       <c r="D305" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J305" s="1"/>
     </row>
@@ -12713,13 +12710,13 @@
         <v>306</v>
       </c>
       <c r="B306" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="C306" s="1" t="s">
-        <v>1063</v>
-      </c>
       <c r="D306" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12727,13 +12724,13 @@
         <v>307</v>
       </c>
       <c r="B307" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="C307" s="1" t="s">
-        <v>1065</v>
-      </c>
       <c r="D307" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12741,13 +12738,13 @@
         <v>308</v>
       </c>
       <c r="B308" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="C308" s="1" t="s">
-        <v>1067</v>
-      </c>
       <c r="D308" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12755,13 +12752,13 @@
         <v>309</v>
       </c>
       <c r="B309" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="C309" s="1" t="s">
-        <v>1069</v>
-      </c>
       <c r="D309" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J309" s="1"/>
     </row>
@@ -12770,13 +12767,13 @@
         <v>310</v>
       </c>
       <c r="B310" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="C310" s="1" t="s">
-        <v>1071</v>
-      </c>
       <c r="D310" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I310" s="1"/>
     </row>
@@ -12785,13 +12782,13 @@
         <v>311</v>
       </c>
       <c r="B311" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="C311" s="1" t="s">
-        <v>1073</v>
-      </c>
       <c r="D311" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12799,13 +12796,13 @@
         <v>312</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="C312" s="1" t="s">
-        <v>1075</v>
-      </c>
       <c r="D312" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12813,13 +12810,13 @@
         <v>313</v>
       </c>
       <c r="B313" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="C313" s="1" t="s">
-        <v>1077</v>
-      </c>
       <c r="D313" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H313" s="1"/>
     </row>
@@ -12828,13 +12825,13 @@
         <v>314</v>
       </c>
       <c r="B314" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="C314" s="1" t="s">
-        <v>1079</v>
-      </c>
       <c r="D314" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12842,13 +12839,13 @@
         <v>315</v>
       </c>
       <c r="B315" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="C315" s="1" t="s">
-        <v>1081</v>
-      </c>
       <c r="D315" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12856,13 +12853,13 @@
         <v>316</v>
       </c>
       <c r="B316" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="C316" s="1" t="s">
-        <v>1083</v>
-      </c>
       <c r="D316" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I316" s="1"/>
     </row>
@@ -12871,13 +12868,13 @@
         <v>317</v>
       </c>
       <c r="B317" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>1085</v>
-      </c>
       <c r="D317" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12885,13 +12882,13 @@
         <v>318</v>
       </c>
       <c r="B318" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="C318" s="1" t="s">
-        <v>1087</v>
-      </c>
       <c r="D318" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I318" s="1"/>
       <c r="K318" s="1"/>
@@ -12901,13 +12898,13 @@
         <v>319</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="C319" s="1" t="s">
-        <v>1089</v>
-      </c>
       <c r="D319" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
@@ -12918,13 +12915,13 @@
         <v>320</v>
       </c>
       <c r="B320" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="C320" s="1" t="s">
-        <v>1091</v>
-      </c>
       <c r="D320" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I320" s="1"/>
       <c r="K320" s="1"/>
@@ -12934,13 +12931,13 @@
         <v>321</v>
       </c>
       <c r="B321" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="C321" s="1" t="s">
-        <v>1093</v>
-      </c>
       <c r="D321" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12948,13 +12945,13 @@
         <v>322</v>
       </c>
       <c r="B322" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="C322" s="1" t="s">
-        <v>1095</v>
-      </c>
       <c r="D322" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J322" s="1"/>
     </row>
@@ -12963,13 +12960,13 @@
         <v>323</v>
       </c>
       <c r="B323" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="C323" s="1" t="s">
-        <v>1097</v>
-      </c>
       <c r="D323" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12977,13 +12974,13 @@
         <v>324</v>
       </c>
       <c r="B324" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="C324" s="1" t="s">
-        <v>1099</v>
-      </c>
       <c r="D324" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H324" s="1"/>
       <c r="K324" s="1"/>
@@ -12993,13 +12990,13 @@
         <v>325</v>
       </c>
       <c r="B325" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="C325" s="1" t="s">
-        <v>1101</v>
-      </c>
       <c r="D325" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I325" s="1"/>
     </row>
@@ -13008,13 +13005,13 @@
         <v>326</v>
       </c>
       <c r="B326" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="C326" s="1" t="s">
-        <v>1103</v>
-      </c>
       <c r="D326" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J326" s="1"/>
     </row>
@@ -13023,13 +13020,13 @@
         <v>327</v>
       </c>
       <c r="B327" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="C327" s="1" t="s">
-        <v>1105</v>
-      </c>
       <c r="D327" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13037,13 +13034,13 @@
         <v>328</v>
       </c>
       <c r="B328" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="C328" s="1" t="s">
-        <v>1107</v>
-      </c>
       <c r="D328" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13051,13 +13048,13 @@
         <v>329</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="C329" s="1" t="s">
-        <v>1109</v>
-      </c>
       <c r="D329" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H329" s="1"/>
       <c r="K329" s="1"/>
@@ -13067,13 +13064,13 @@
         <v>330</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="C330" s="1" t="s">
-        <v>1111</v>
-      </c>
       <c r="D330" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H330" s="1"/>
       <c r="K330" s="1"/>
@@ -13083,13 +13080,13 @@
         <v>331</v>
       </c>
       <c r="B331" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="C331" s="1" t="s">
-        <v>1113</v>
-      </c>
       <c r="D331" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H331" s="1"/>
       <c r="K331" s="1"/>
@@ -13099,13 +13096,13 @@
         <v>332</v>
       </c>
       <c r="B332" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="C332" s="1" t="s">
-        <v>1115</v>
-      </c>
       <c r="D332" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H332" s="1"/>
       <c r="K332" s="1"/>
@@ -13115,13 +13112,13 @@
         <v>333</v>
       </c>
       <c r="B333" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="C333" s="1" t="s">
-        <v>1117</v>
-      </c>
       <c r="D333" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H333" s="1"/>
       <c r="K333" s="1"/>
@@ -13131,13 +13128,13 @@
         <v>334</v>
       </c>
       <c r="B334" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="C334" s="1" t="s">
-        <v>1119</v>
-      </c>
       <c r="D334" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13145,13 +13142,13 @@
         <v>335</v>
       </c>
       <c r="B335" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="C335" s="1" t="s">
-        <v>1121</v>
-      </c>
       <c r="D335" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H335" s="1"/>
     </row>
@@ -13160,13 +13157,13 @@
         <v>336</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="C336" s="1" t="s">
-        <v>1123</v>
-      </c>
       <c r="D336" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K336" s="1"/>
     </row>
@@ -13175,13 +13172,13 @@
         <v>337</v>
       </c>
       <c r="B337" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="C337" s="1" t="s">
-        <v>1125</v>
-      </c>
       <c r="D337" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K337" s="1"/>
     </row>
@@ -13190,13 +13187,13 @@
         <v>338</v>
       </c>
       <c r="B338" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="C338" s="1" t="s">
-        <v>1127</v>
-      </c>
       <c r="D338" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K338" s="1"/>
     </row>
@@ -13205,13 +13202,13 @@
         <v>339</v>
       </c>
       <c r="B339" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="C339" s="1" t="s">
-        <v>1129</v>
-      </c>
       <c r="D339" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13219,13 +13216,13 @@
         <v>340</v>
       </c>
       <c r="B340" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C340" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="C340" s="1" t="s">
-        <v>1131</v>
-      </c>
       <c r="D340" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H340" s="1"/>
       <c r="K340" s="1"/>
@@ -13235,13 +13232,13 @@
         <v>341</v>
       </c>
       <c r="B341" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="C341" s="1" t="s">
-        <v>1133</v>
-      </c>
       <c r="D341" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I341" s="1"/>
     </row>
@@ -13250,13 +13247,13 @@
         <v>342</v>
       </c>
       <c r="B342" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C342" s="1" t="s">
-        <v>1135</v>
-      </c>
       <c r="D342" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I342" s="1"/>
     </row>
@@ -13265,13 +13262,13 @@
         <v>343</v>
       </c>
       <c r="B343" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="C343" s="1" t="s">
-        <v>1137</v>
-      </c>
       <c r="D343" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13279,13 +13276,13 @@
         <v>344</v>
       </c>
       <c r="B344" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="C344" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="D344" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13293,13 +13290,13 @@
         <v>345</v>
       </c>
       <c r="B345" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>1141</v>
-      </c>
       <c r="D345" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13307,13 +13304,13 @@
         <v>346</v>
       </c>
       <c r="B346" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C346" s="1" t="s">
-        <v>1143</v>
-      </c>
       <c r="D346" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13321,13 +13318,13 @@
         <v>347</v>
       </c>
       <c r="B347" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="C347" s="1" t="s">
-        <v>1145</v>
-      </c>
       <c r="D347" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H347" s="1"/>
       <c r="K347" s="1"/>
@@ -13337,13 +13334,13 @@
         <v>348</v>
       </c>
       <c r="B348" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="C348" s="1" t="s">
-        <v>1147</v>
-      </c>
       <c r="D348" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13351,13 +13348,13 @@
         <v>349</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>1149</v>
-      </c>
       <c r="D349" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H349" s="1"/>
       <c r="K349" s="1"/>
@@ -13367,13 +13364,13 @@
         <v>350</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="C350" s="1" t="s">
-        <v>1151</v>
-      </c>
       <c r="D350" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13381,13 +13378,13 @@
         <v>351</v>
       </c>
       <c r="B351" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="C351" s="1" t="s">
-        <v>1153</v>
-      </c>
       <c r="D351" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H351" s="1"/>
     </row>
@@ -13396,13 +13393,13 @@
         <v>352</v>
       </c>
       <c r="B352" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C352" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="C352" s="1" t="s">
-        <v>1155</v>
-      </c>
       <c r="D352" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13410,13 +13407,13 @@
         <v>353</v>
       </c>
       <c r="B353" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C353" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="C353" s="1" t="s">
-        <v>1157</v>
-      </c>
       <c r="D353" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
@@ -13427,13 +13424,13 @@
         <v>354</v>
       </c>
       <c r="B354" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="C354" s="1" t="s">
-        <v>1159</v>
-      </c>
       <c r="D354" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H354" s="1"/>
       <c r="K354" s="1"/>
@@ -13443,13 +13440,13 @@
         <v>355</v>
       </c>
       <c r="B355" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="C355" s="1" t="s">
-        <v>1161</v>
-      </c>
       <c r="D355" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H355" s="1"/>
       <c r="K355" s="1"/>
@@ -13459,13 +13456,13 @@
         <v>356</v>
       </c>
       <c r="B356" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="C356" s="1" t="s">
-        <v>1163</v>
-      </c>
       <c r="D356" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H356" s="1"/>
     </row>
@@ -13474,13 +13471,13 @@
         <v>357</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="C357" s="1" t="s">
-        <v>1165</v>
-      </c>
       <c r="D357" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H357" s="1"/>
     </row>
@@ -13489,13 +13486,13 @@
         <v>358</v>
       </c>
       <c r="B358" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C358" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="D358" s="3" t="s">
         <v>1167</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>1168</v>
       </c>
       <c r="I358" s="1"/>
       <c r="K358" s="1"/>
@@ -13505,13 +13502,13 @@
         <v>359</v>
       </c>
       <c r="B359" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C359" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="C359" s="3" t="s">
-        <v>1170</v>
-      </c>
       <c r="D359" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I359" s="1"/>
     </row>
@@ -13520,13 +13517,13 @@
         <v>360</v>
       </c>
       <c r="B360" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C360" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="C360" s="3" t="s">
-        <v>1172</v>
-      </c>
       <c r="D360" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K360" s="1"/>
     </row>
@@ -13535,13 +13532,13 @@
         <v>361</v>
       </c>
       <c r="B361" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C361" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="C361" s="3" t="s">
-        <v>1174</v>
-      </c>
       <c r="D361" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13549,13 +13546,13 @@
         <v>362</v>
       </c>
       <c r="B362" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C362" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="C362" s="3" t="s">
-        <v>1176</v>
-      </c>
       <c r="D362" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13563,13 +13560,13 @@
         <v>363</v>
       </c>
       <c r="B363" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="C363" s="3" t="s">
-        <v>1178</v>
-      </c>
       <c r="D363" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K363" s="1"/>
     </row>
@@ -13578,13 +13575,13 @@
         <v>364</v>
       </c>
       <c r="B364" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="C364" s="3" t="s">
-        <v>1180</v>
-      </c>
       <c r="D364" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K364" s="1"/>
     </row>
@@ -13593,13 +13590,13 @@
         <v>365</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C365" s="3" t="s">
-        <v>1182</v>
-      </c>
       <c r="D365" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H365" s="1"/>
       <c r="K365" s="1"/>
@@ -13609,13 +13606,13 @@
         <v>366</v>
       </c>
       <c r="B366" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C366" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="C366" s="3" t="s">
-        <v>1184</v>
-      </c>
       <c r="D366" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K366" s="1"/>
     </row>
@@ -13624,13 +13621,13 @@
         <v>367</v>
       </c>
       <c r="B367" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C367" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="C367" s="3" t="s">
-        <v>1186</v>
-      </c>
       <c r="D367" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13638,13 +13635,13 @@
         <v>368</v>
       </c>
       <c r="B368" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C368" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="C368" s="3" t="s">
-        <v>1188</v>
-      </c>
       <c r="D368" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13652,13 +13649,13 @@
         <v>369</v>
       </c>
       <c r="B369" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C369" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="C369" s="3" t="s">
-        <v>1190</v>
-      </c>
       <c r="D369" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K369" s="1"/>
     </row>
@@ -13667,13 +13664,13 @@
         <v>370</v>
       </c>
       <c r="B370" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C370" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="C370" s="3" t="s">
-        <v>1192</v>
-      </c>
       <c r="D370" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K370" s="1"/>
     </row>
@@ -13682,13 +13679,13 @@
         <v>371</v>
       </c>
       <c r="B371" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C371" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="C371" s="3" t="s">
-        <v>1194</v>
-      </c>
       <c r="D371" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13696,13 +13693,13 @@
         <v>372</v>
       </c>
       <c r="B372" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C372" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="C372" s="3" t="s">
-        <v>1196</v>
-      </c>
       <c r="D372" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13710,13 +13707,13 @@
         <v>373</v>
       </c>
       <c r="B373" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C373" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="C373" s="3" t="s">
-        <v>1198</v>
-      </c>
       <c r="D373" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13724,13 +13721,13 @@
         <v>374</v>
       </c>
       <c r="B374" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C374" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="C374" s="3" t="s">
-        <v>1200</v>
-      </c>
       <c r="D374" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13738,13 +13735,13 @@
         <v>375</v>
       </c>
       <c r="B375" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C375" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="C375" s="3" t="s">
-        <v>1202</v>
-      </c>
       <c r="D375" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K375" s="1"/>
     </row>
@@ -13753,13 +13750,13 @@
         <v>376</v>
       </c>
       <c r="B376" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C376" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="C376" s="3" t="s">
-        <v>1204</v>
-      </c>
       <c r="D376" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13767,13 +13764,13 @@
         <v>377</v>
       </c>
       <c r="B377" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C377" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="C377" s="3" t="s">
-        <v>1206</v>
-      </c>
       <c r="D377" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H377" s="1"/>
     </row>
@@ -13782,13 +13779,13 @@
         <v>378</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>1207</v>
       </c>
-      <c r="C378" s="3" t="s">
-        <v>1208</v>
-      </c>
       <c r="D378" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H378" s="1"/>
     </row>
@@ -13797,13 +13794,13 @@
         <v>379</v>
       </c>
       <c r="B379" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C379" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="C379" s="3" t="s">
-        <v>1210</v>
-      </c>
       <c r="D379" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I379" s="1"/>
     </row>
@@ -13812,13 +13809,13 @@
         <v>380</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="C380" s="3" t="s">
-        <v>1212</v>
-      </c>
       <c r="D380" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I380" s="1"/>
     </row>
@@ -13827,13 +13824,13 @@
         <v>381</v>
       </c>
       <c r="B381" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C381" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="C381" s="3" t="s">
-        <v>1214</v>
-      </c>
       <c r="D381" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I381" s="1"/>
     </row>
@@ -13842,13 +13839,13 @@
         <v>382</v>
       </c>
       <c r="B382" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C382" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="C382" s="3" t="s">
-        <v>1216</v>
-      </c>
       <c r="D382" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I382" s="1"/>
     </row>
@@ -13857,13 +13854,13 @@
         <v>383</v>
       </c>
       <c r="B383" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C383" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="C383" s="3" t="s">
-        <v>1218</v>
-      </c>
       <c r="D383" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I383" s="1"/>
     </row>
@@ -13872,13 +13869,13 @@
         <v>384</v>
       </c>
       <c r="B384" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C384" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="C384" s="3" t="s">
-        <v>1220</v>
-      </c>
       <c r="D384" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I384" s="1"/>
     </row>
@@ -13887,13 +13884,13 @@
         <v>385</v>
       </c>
       <c r="B385" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C385" s="3" t="s">
         <v>1221</v>
       </c>
-      <c r="C385" s="3" t="s">
-        <v>1222</v>
-      </c>
       <c r="D385" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I385" s="1"/>
     </row>
@@ -13902,13 +13899,13 @@
         <v>386</v>
       </c>
       <c r="B386" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C386" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="C386" s="3" t="s">
-        <v>1224</v>
-      </c>
       <c r="D386" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I386" s="1"/>
     </row>
@@ -13917,13 +13914,13 @@
         <v>387</v>
       </c>
       <c r="B387" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C387" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="C387" s="3" t="s">
-        <v>1226</v>
-      </c>
       <c r="D387" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K387" s="1"/>
     </row>
@@ -13932,13 +13929,13 @@
         <v>388</v>
       </c>
       <c r="B388" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C388" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="C388" s="3" t="s">
-        <v>1228</v>
-      </c>
       <c r="D388" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I388" s="1"/>
     </row>
@@ -13947,13 +13944,13 @@
         <v>389</v>
       </c>
       <c r="B389" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C389" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="C389" s="3" t="s">
-        <v>1230</v>
-      </c>
       <c r="D389" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K389" s="1"/>
     </row>
@@ -13962,13 +13959,13 @@
         <v>390</v>
       </c>
       <c r="B390" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C390" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="C390" s="3" t="s">
-        <v>1232</v>
-      </c>
       <c r="D390" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13976,13 +13973,13 @@
         <v>391</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="C391" s="3" t="s">
-        <v>1234</v>
-      </c>
       <c r="D391" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13990,13 +13987,13 @@
         <v>392</v>
       </c>
       <c r="B392" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C392" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="C392" s="3" t="s">
-        <v>1236</v>
-      </c>
       <c r="D392" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H392" s="1"/>
       <c r="K392" s="1"/>
@@ -14006,13 +14003,13 @@
         <v>393</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="C393" s="3" t="s">
-        <v>1238</v>
-      </c>
       <c r="D393" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14020,13 +14017,13 @@
         <v>394</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="C394" s="3" t="s">
-        <v>1240</v>
-      </c>
       <c r="D394" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H394" s="1"/>
     </row>
@@ -14035,13 +14032,13 @@
         <v>395</v>
       </c>
       <c r="B395" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C395" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="C395" s="3" t="s">
-        <v>1242</v>
-      </c>
       <c r="D395" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I395" s="1"/>
     </row>
@@ -14050,13 +14047,13 @@
         <v>396</v>
       </c>
       <c r="B396" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C396" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="C396" s="3" t="s">
-        <v>1244</v>
-      </c>
       <c r="D396" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14064,13 +14061,13 @@
         <v>397</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="C397" s="3" t="s">
-        <v>1246</v>
-      </c>
       <c r="D397" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14078,13 +14075,13 @@
         <v>398</v>
       </c>
       <c r="B398" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C398" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="C398" s="3" t="s">
-        <v>1248</v>
-      </c>
       <c r="D398" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K398" s="1"/>
     </row>
@@ -14093,13 +14090,13 @@
         <v>399</v>
       </c>
       <c r="B399" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C399" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="C399" s="3" t="s">
-        <v>1250</v>
-      </c>
       <c r="D399" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K399" s="1"/>
     </row>
@@ -14108,13 +14105,13 @@
         <v>400</v>
       </c>
       <c r="B400" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C400" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="C400" s="3" t="s">
-        <v>1252</v>
-      </c>
       <c r="D400" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I400" s="1"/>
     </row>
@@ -14123,13 +14120,13 @@
         <v>401</v>
       </c>
       <c r="B401" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C401" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="C401" s="3" t="s">
-        <v>1254</v>
-      </c>
       <c r="D401" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14137,13 +14134,13 @@
         <v>402</v>
       </c>
       <c r="B402" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C402" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="C402" s="3" t="s">
-        <v>1256</v>
-      </c>
       <c r="D402" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H402" s="1"/>
     </row>
@@ -14152,13 +14149,13 @@
         <v>403</v>
       </c>
       <c r="B403" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C403" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="C403" s="3" t="s">
-        <v>1258</v>
-      </c>
       <c r="D403" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I403" s="1"/>
     </row>
@@ -14167,13 +14164,13 @@
         <v>404</v>
       </c>
       <c r="B404" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C404" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="C404" s="3" t="s">
-        <v>1260</v>
-      </c>
       <c r="D404" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I404" s="1"/>
     </row>
@@ -14182,13 +14179,13 @@
         <v>405</v>
       </c>
       <c r="B405" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C405" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="C405" s="3" t="s">
-        <v>1262</v>
-      </c>
       <c r="D405" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H405" s="1"/>
     </row>
@@ -14197,13 +14194,13 @@
         <v>406</v>
       </c>
       <c r="B406" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C406" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="C406" s="3" t="s">
-        <v>1264</v>
-      </c>
       <c r="D406" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14211,13 +14208,13 @@
         <v>407</v>
       </c>
       <c r="B407" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C407" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="C407" s="3" t="s">
-        <v>1266</v>
-      </c>
       <c r="D407" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14225,13 +14222,13 @@
         <v>408</v>
       </c>
       <c r="B408" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C408" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="C408" s="3" t="s">
-        <v>1268</v>
-      </c>
       <c r="D408" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14239,13 +14236,13 @@
         <v>409</v>
       </c>
       <c r="B409" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C409" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="C409" s="3" t="s">
-        <v>1270</v>
-      </c>
       <c r="D409" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14253,13 +14250,13 @@
         <v>410</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C410" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="C410" s="3" t="s">
-        <v>1272</v>
-      </c>
       <c r="D410" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H410" s="1"/>
       <c r="K410" s="1"/>
@@ -14269,13 +14266,13 @@
         <v>411</v>
       </c>
       <c r="B411" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C411" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="C411" s="3" t="s">
-        <v>1274</v>
-      </c>
       <c r="D411" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I411" s="1"/>
     </row>
@@ -14284,13 +14281,13 @@
         <v>412</v>
       </c>
       <c r="B412" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C412" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="C412" s="3" t="s">
-        <v>1276</v>
-      </c>
       <c r="D412" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I412" s="1"/>
     </row>
@@ -14299,13 +14296,13 @@
         <v>413</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="C413" s="3" t="s">
-        <v>1278</v>
-      </c>
       <c r="D413" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I413" s="1"/>
     </row>
@@ -14314,13 +14311,13 @@
         <v>414</v>
       </c>
       <c r="B414" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C414" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="C414" s="3" t="s">
-        <v>1280</v>
-      </c>
       <c r="D414" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K414" s="1"/>
     </row>
@@ -14329,13 +14326,13 @@
         <v>415</v>
       </c>
       <c r="B415" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C415" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="C415" s="3" t="s">
-        <v>1282</v>
-      </c>
       <c r="D415" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K415" s="1"/>
     </row>
@@ -14344,13 +14341,13 @@
         <v>416</v>
       </c>
       <c r="B416" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C416" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="C416" s="3" t="s">
-        <v>1284</v>
-      </c>
       <c r="D416" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K416" s="1"/>
     </row>
@@ -14359,13 +14356,13 @@
         <v>417</v>
       </c>
       <c r="B417" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C417" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="C417" s="3" t="s">
-        <v>1286</v>
-      </c>
       <c r="D417" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I417" s="1"/>
       <c r="K417" s="1"/>
@@ -14375,13 +14372,13 @@
         <v>418</v>
       </c>
       <c r="B418" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="C418" s="3" t="s">
-        <v>1288</v>
-      </c>
       <c r="D418" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H418" s="1"/>
       <c r="K418" s="1"/>
@@ -14391,13 +14388,13 @@
         <v>419</v>
       </c>
       <c r="B419" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C419" s="3" t="s">
         <v>1289</v>
       </c>
-      <c r="C419" s="3" t="s">
-        <v>1290</v>
-      </c>
       <c r="D419" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H419" s="1"/>
       <c r="K419" s="1"/>
@@ -14407,13 +14404,13 @@
         <v>420</v>
       </c>
       <c r="B420" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C420" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="C420" s="3" t="s">
-        <v>1292</v>
-      </c>
       <c r="D420" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H420" s="1"/>
       <c r="K420" s="1"/>
@@ -14423,13 +14420,13 @@
         <v>421</v>
       </c>
       <c r="B421" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C421" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="C421" s="3" t="s">
-        <v>1294</v>
-      </c>
       <c r="D421" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14437,13 +14434,13 @@
         <v>422</v>
       </c>
       <c r="B422" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C422" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="C422" s="3" t="s">
-        <v>1296</v>
-      </c>
       <c r="D422" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14451,13 +14448,13 @@
         <v>423</v>
       </c>
       <c r="B423" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C423" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="C423" s="3" t="s">
-        <v>1298</v>
-      </c>
       <c r="D423" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14465,13 +14462,13 @@
         <v>424</v>
       </c>
       <c r="B424" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C424" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="C424" s="3" t="s">
-        <v>1300</v>
-      </c>
       <c r="D424" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K424" s="1"/>
     </row>
@@ -14480,13 +14477,13 @@
         <v>425</v>
       </c>
       <c r="B425" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="C425" s="3" t="s">
-        <v>1302</v>
-      </c>
       <c r="D425" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K425" s="1"/>
     </row>
@@ -14495,13 +14492,13 @@
         <v>426</v>
       </c>
       <c r="B426" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C426" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="C426" s="3" t="s">
-        <v>1304</v>
-      </c>
       <c r="D426" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K426" s="1"/>
     </row>
@@ -14510,13 +14507,13 @@
         <v>427</v>
       </c>
       <c r="B427" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C427" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="C427" s="3" t="s">
-        <v>1306</v>
-      </c>
       <c r="D427" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14524,13 +14521,13 @@
         <v>428</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="C428" s="3" t="s">
-        <v>1308</v>
-      </c>
       <c r="D428" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14538,13 +14535,13 @@
         <v>429</v>
       </c>
       <c r="B429" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C429" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="C429" s="3" t="s">
-        <v>1310</v>
-      </c>
       <c r="D429" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H429" s="1"/>
     </row>
@@ -14553,13 +14550,13 @@
         <v>430</v>
       </c>
       <c r="B430" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="C430" s="3" t="s">
-        <v>1312</v>
-      </c>
       <c r="D430" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14567,13 +14564,13 @@
         <v>431</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="C431" s="3" t="s">
-        <v>1314</v>
-      </c>
       <c r="D431" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14581,13 +14578,13 @@
         <v>432</v>
       </c>
       <c r="B432" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C432" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="C432" s="3" t="s">
-        <v>1316</v>
-      </c>
       <c r="D432" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H432" s="1"/>
     </row>
@@ -14596,13 +14593,13 @@
         <v>433</v>
       </c>
       <c r="B433" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C433" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="C433" s="3" t="s">
-        <v>1318</v>
-      </c>
       <c r="D433" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14610,13 +14607,13 @@
         <v>434</v>
       </c>
       <c r="B434" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C434" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="C434" s="3" t="s">
-        <v>1320</v>
-      </c>
       <c r="D434" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I434" s="1"/>
       <c r="K434" s="1"/>
@@ -14626,13 +14623,13 @@
         <v>435</v>
       </c>
       <c r="B435" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C435" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="C435" s="3" t="s">
-        <v>1322</v>
-      </c>
       <c r="D435" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I435" s="1"/>
     </row>
@@ -14641,13 +14638,13 @@
         <v>436</v>
       </c>
       <c r="B436" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C436" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="C436" s="3" t="s">
-        <v>1324</v>
-      </c>
       <c r="D436" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H436" s="1"/>
     </row>
@@ -14656,13 +14653,13 @@
         <v>437</v>
       </c>
       <c r="B437" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C437" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="C437" s="3" t="s">
-        <v>1326</v>
-      </c>
       <c r="D437" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14670,13 +14667,13 @@
         <v>438</v>
       </c>
       <c r="B438" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C438" s="3" t="s">
         <v>1327</v>
       </c>
-      <c r="C438" s="3" t="s">
-        <v>1328</v>
-      </c>
       <c r="D438" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14684,13 +14681,13 @@
         <v>439</v>
       </c>
       <c r="B439" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C439" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="C439" s="3" t="s">
-        <v>1330</v>
-      </c>
       <c r="D439" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K439" s="1"/>
     </row>
@@ -14699,13 +14696,13 @@
         <v>440</v>
       </c>
       <c r="B440" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C440" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="C440" s="3" t="s">
-        <v>1332</v>
-      </c>
       <c r="D440" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K440" s="1"/>
     </row>
@@ -14714,13 +14711,13 @@
         <v>441</v>
       </c>
       <c r="B441" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C441" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="C441" s="3" t="s">
-        <v>1334</v>
-      </c>
       <c r="D441" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H441" s="1"/>
       <c r="K441" s="1"/>
@@ -14730,13 +14727,13 @@
         <v>442</v>
       </c>
       <c r="B442" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C442" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="C442" s="3" t="s">
-        <v>1336</v>
-      </c>
       <c r="D442" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H442" s="1"/>
       <c r="K442" s="1"/>
@@ -14746,13 +14743,13 @@
         <v>443</v>
       </c>
       <c r="B443" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C443" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="C443" s="3" t="s">
-        <v>1338</v>
-      </c>
       <c r="D443" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H443" s="1"/>
       <c r="K443" s="1"/>
@@ -14762,13 +14759,13 @@
         <v>444</v>
       </c>
       <c r="B444" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C444" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="C444" s="3" t="s">
-        <v>1340</v>
-      </c>
       <c r="D444" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H444" s="1"/>
       <c r="K444" s="1"/>
@@ -14778,13 +14775,13 @@
         <v>445</v>
       </c>
       <c r="B445" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C445" s="3" t="s">
         <v>1341</v>
       </c>
-      <c r="C445" s="3" t="s">
-        <v>1342</v>
-      </c>
       <c r="D445" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14792,13 +14789,13 @@
         <v>446</v>
       </c>
       <c r="B446" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C446" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="C446" s="3" t="s">
-        <v>1344</v>
-      </c>
       <c r="D446" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K446" s="1"/>
     </row>
@@ -14807,13 +14804,13 @@
         <v>447</v>
       </c>
       <c r="B447" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C447" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="C447" s="3" t="s">
-        <v>1346</v>
-      </c>
       <c r="D447" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
@@ -14842,7 +14839,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G35" activeCellId="0" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14868,16 +14865,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1349</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1350</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -14894,19 +14891,19 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>1354</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14914,22 +14911,22 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>1359</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14937,22 +14934,22 @@
         <v>1004</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>1364</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14960,22 +14957,22 @@
         <v>1005</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>1369</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14983,22 +14980,22 @@
         <v>1006</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>1374</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15012,19 +15009,19 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>1379</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15032,25 +15029,25 @@
         <v>1010</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>1384</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15058,25 +15055,25 @@
         <v>1011</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>1390</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15084,22 +15081,22 @@
         <v>1013</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>1394</v>
-      </c>
       <c r="G10" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>1364</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15107,22 +15104,22 @@
         <v>1014</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>1398</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15130,22 +15127,22 @@
         <v>1015</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>1403</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15153,22 +15150,22 @@
         <v>1016</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>1407</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15182,19 +15179,19 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>1412</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15202,22 +15199,22 @@
         <v>1018</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>1417</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15225,25 +15222,25 @@
         <v>1019</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>1422</v>
-      </c>
       <c r="G16" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>1390</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15251,22 +15248,22 @@
         <v>1020</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>1426</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15274,22 +15271,22 @@
         <v>1021</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>1430</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15297,22 +15294,22 @@
         <v>1022</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>1434</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15326,19 +15323,19 @@
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>1438</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>1390</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15346,25 +15343,25 @@
         <v>1024</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>1443</v>
-      </c>
       <c r="G21" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>1390</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15372,22 +15369,22 @@
         <v>1025</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>1446</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15395,22 +15392,22 @@
         <v>1026</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>1450</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15418,22 +15415,22 @@
         <v>1027</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>1454</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15441,22 +15438,22 @@
         <v>1028</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>1459</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15464,22 +15461,22 @@
         <v>1029</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>1464</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15487,25 +15484,25 @@
         <v>1030</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>1468</v>
-      </c>
       <c r="G27" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>1390</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15513,22 +15510,22 @@
         <v>1002</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>1472</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15536,19 +15533,19 @@
         <v>1003</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>1476</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15556,19 +15553,19 @@
         <v>1008</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>1479</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15576,19 +15573,19 @@
         <v>1009</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>1483</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15596,22 +15593,22 @@
         <v>1012</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>1487</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15619,22 +15616,22 @@
         <v>1032</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>1492</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15642,19 +15639,19 @@
         <v>1033</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>1496</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15662,10 +15659,10 @@
         <v>1034</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15673,10 +15670,10 @@
         <v>1035</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15684,10 +15681,10 @@
         <v>1036</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15695,10 +15692,10 @@
         <v>1037</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15706,10 +15703,10 @@
         <v>1038</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15717,10 +15714,10 @@
         <v>1039</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -15733,10 +15730,10 @@
         <v>1040</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -15749,10 +15746,10 @@
         <v>1041</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -15765,10 +15762,10 @@
         <v>1042</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -15781,10 +15778,10 @@
         <v>1043</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -15797,10 +15794,10 @@
         <v>1044</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -15813,10 +15810,10 @@
         <v>1045</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -15829,10 +15826,10 @@
         <v>1046</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -15845,10 +15842,10 @@
         <v>1047</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -15861,10 +15858,10 @@
         <v>1048</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -15877,10 +15874,10 @@
         <v>1049</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -15893,10 +15890,10 @@
         <v>1050</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -15909,10 +15906,10 @@
         <v>1051</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -15970,13 +15967,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>1347</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>1348</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15984,17 +15981,17 @@
         <v>2000</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>1518</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16002,17 +15999,17 @@
         <v>2001</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16020,17 +16017,17 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16038,17 +16035,17 @@
         <v>2013</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>1525</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16056,17 +16053,17 @@
         <v>2014</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16074,17 +16071,17 @@
         <v>2017</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16092,17 +16089,17 @@
         <v>2010</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>1532</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16110,17 +16107,17 @@
         <v>2008</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16128,17 +16125,17 @@
         <v>2021</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16146,17 +16143,17 @@
         <v>2022</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16164,17 +16161,17 @@
         <v>2012</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>1541</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16182,17 +16179,17 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="9" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16200,17 +16197,17 @@
         <v>2015</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16218,17 +16215,17 @@
         <v>2016</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16236,17 +16233,17 @@
         <v>2023</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>1550</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16254,17 +16251,17 @@
         <v>2024</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="9" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>1553</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16272,19 +16269,19 @@
         <v>2020</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>1556</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>1557</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16292,19 +16289,19 @@
         <v>2003</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>1560</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>1561</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16312,19 +16309,19 @@
         <v>2004</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>1564</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>1565</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16332,19 +16329,19 @@
         <v>2006</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>1568</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>1569</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16352,19 +16349,19 @@
         <v>2005</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>1572</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>1573</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16372,19 +16369,19 @@
         <v>2018</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>1576</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>1577</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16392,19 +16389,19 @@
         <v>2009</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>1580</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>1581</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16412,19 +16409,19 @@
         <v>2025</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>1584</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>1585</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16432,19 +16429,19 @@
         <v>2007</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>1588</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16452,19 +16449,19 @@
         <v>2019</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>1591</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>1592</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16472,10 +16469,10 @@
         <v>2031</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
@@ -16486,10 +16483,10 @@
         <v>2030</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
@@ -16500,10 +16497,10 @@
         <v>2033</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
@@ -16514,10 +16511,10 @@
         <v>2032</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -16528,10 +16525,10 @@
         <v>2026</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
@@ -16542,10 +16539,10 @@
         <v>2027</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
@@ -16556,10 +16553,10 @@
         <v>2029</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
@@ -16570,10 +16567,10 @@
         <v>2028</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
@@ -16584,10 +16581,10 @@
         <v>2043</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -16598,10 +16595,10 @@
         <v>2040</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -16612,10 +16609,10 @@
         <v>2035</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -16626,10 +16623,10 @@
         <v>2041</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -16640,10 +16637,10 @@
         <v>2042</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -16654,10 +16651,10 @@
         <v>2044</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -16668,10 +16665,10 @@
         <v>2036</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -16682,10 +16679,10 @@
         <v>2034</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -16696,10 +16693,10 @@
         <v>2037</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -16710,10 +16707,10 @@
         <v>2038</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -16724,10 +16721,10 @@
         <v>2039</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -16738,10 +16735,10 @@
         <v>2045</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -16784,55 +16781,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1615</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1617</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1619</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1621</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1623</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1625</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1626</v>
       </c>
     </row>
   </sheetData>
@@ -16870,15 +16867,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B2" s="11" t="n">
         <f aca="false">FALSE()</f>

--- a/i18n/lt.xlsx
+++ b/i18n/lt.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="1628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="1629">
   <si>
     <t>id</t>
   </si>
@@ -4988,6 +4988,9 @@
   <si>
     <t>Kākāpō</t>
   </si>
+  <si>
+    <t>Flavor text</t>
+  </si>
 </sst>
 </file>
 
@@ -4996,7 +4999,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5048,6 +5051,12 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5069,7 +5078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -5093,11 +5102,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5111,15 +5126,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K447" totalsRowShown="0">
-  <autoFilter ref="A1:K447"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:L447" totalsRowShown="0">
+  <autoFilter ref="A1:L447"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="English name"/>
     <tableColumn id="3" name="Scientific name"/>
     <tableColumn id="4" name="Expansion"/>
     <tableColumn id="5" name="Common name"/>
     <tableColumn id="6" name="Power text"/>
+    <tableColumn id="12" name="Flavor text" dataDxfId="0"/>
     <tableColumn id="7" name="Note"/>
     <tableColumn id="8" name="Anatomist"/>
     <tableColumn id="9" name="Cartographer"/>
@@ -5334,13 +5350,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K447"/>
+  <dimension ref="A1:L447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
-      <selection pane="bottomRight" activeCell="B298" sqref="B298"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5350,15 +5366,16 @@
     <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="163.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="74.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5377,23 +5394,26 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="15" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -5412,17 +5432,17 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -5441,14 +5461,14 @@
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -5467,14 +5487,14 @@
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -5493,14 +5513,14 @@
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -5519,14 +5539,14 @@
       <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -5545,12 +5565,12 @@
       <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -5569,14 +5589,14 @@
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -5595,14 +5615,14 @@
       <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -5621,15 +5641,15 @@
       <c r="F10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -5648,11 +5668,12 @@
       <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11"/>
+      <c r="H11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -5671,15 +5692,15 @@
       <c r="F12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="K12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+      <c r="L12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -5695,11 +5716,11 @@
       <c r="E13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -5718,18 +5739,18 @@
       <c r="F14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="I14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -5748,14 +5769,14 @@
       <c r="F15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -5774,17 +5795,17 @@
       <c r="F16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -5803,13 +5824,13 @@
       <c r="F17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -5828,11 +5849,11 @@
       <c r="F18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -5851,14 +5872,14 @@
       <c r="F19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="J19" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -5877,17 +5898,17 @@
       <c r="F20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="I20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -5906,14 +5927,14 @@
       <c r="F21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -5932,11 +5953,11 @@
       <c r="F22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -5955,11 +5976,11 @@
       <c r="F23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -5978,15 +5999,15 @@
       <c r="F24" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -6005,17 +6026,17 @@
       <c r="F25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -6034,14 +6055,14 @@
       <c r="F26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -6060,18 +6081,18 @@
       <c r="F27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -6090,14 +6111,14 @@
       <c r="F28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I28" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -6116,14 +6137,14 @@
       <c r="F29" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -6142,17 +6163,17 @@
       <c r="F30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -6171,14 +6192,14 @@
       <c r="F31" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -6197,12 +6218,12 @@
       <c r="F32" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -6221,14 +6242,14 @@
       <c r="F33" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -6247,17 +6268,17 @@
       <c r="F34" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -6276,16 +6297,17 @@
       <c r="F35" t="s">
         <v>147</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35"/>
+      <c r="H35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+      <c r="J35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -6304,14 +6326,14 @@
       <c r="F36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -6330,13 +6352,13 @@
       <c r="F37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -6355,17 +6377,17 @@
       <c r="F38" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -6384,16 +6406,16 @@
       <c r="F39" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I39" s="1"/>
+      <c r="J39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -6412,13 +6434,13 @@
       <c r="F40" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -6437,14 +6459,14 @@
       <c r="F41" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -6463,13 +6485,13 @@
       <c r="F42" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -6488,17 +6510,17 @@
       <c r="F43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -6517,11 +6539,11 @@
       <c r="F44" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -6537,14 +6559,14 @@
       <c r="E45" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -6563,15 +6585,15 @@
       <c r="F46" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -6590,12 +6612,12 @@
       <c r="F47" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -6614,11 +6636,11 @@
       <c r="F48" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -6637,9 +6659,9 @@
       <c r="F49" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -6658,12 +6680,12 @@
       <c r="F50" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -6682,14 +6704,14 @@
       <c r="F51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -6708,17 +6730,17 @@
       <c r="F52" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -6737,11 +6759,11 @@
       <c r="F53" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -6760,17 +6782,17 @@
       <c r="F54" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -6789,17 +6811,17 @@
       <c r="F55" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -6818,11 +6840,11 @@
       <c r="F56" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -6841,11 +6863,11 @@
       <c r="F57" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -6864,14 +6886,14 @@
       <c r="F58" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J58" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -6890,11 +6912,11 @@
       <c r="F59" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J59" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -6913,14 +6935,14 @@
       <c r="F60" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J60" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -6939,17 +6961,17 @@
       <c r="F61" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -6968,14 +6990,14 @@
       <c r="F62" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J62" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -6994,14 +7016,14 @@
       <c r="F63" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J63" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -7020,12 +7042,12 @@
       <c r="F64" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="J64" s="1"/>
-      <c r="K64" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="1"/>
+      <c r="L64" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -7044,15 +7066,15 @@
       <c r="F65" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J65" s="1"/>
-      <c r="K65" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="1"/>
+      <c r="L65" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -7071,11 +7093,11 @@
       <c r="F66" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J66" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -7094,12 +7116,12 @@
       <c r="F67" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -7118,15 +7140,15 @@
       <c r="F68" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="1"/>
+      <c r="L68" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -7145,17 +7167,17 @@
       <c r="F69" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -7174,17 +7196,17 @@
       <c r="F70" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -7203,14 +7225,14 @@
       <c r="F71" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J71" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -7229,14 +7251,14 @@
       <c r="F72" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K72" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -7255,9 +7277,9 @@
       <c r="F73" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -7276,17 +7298,17 @@
       <c r="F74" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I74" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -7305,14 +7327,14 @@
       <c r="F75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J75" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -7331,14 +7353,14 @@
       <c r="F76" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -7357,14 +7379,14 @@
       <c r="F77" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -7383,11 +7405,11 @@
       <c r="F78" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -7406,11 +7428,11 @@
       <c r="F79" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -7429,14 +7451,14 @@
       <c r="F80" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="K80" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -7455,11 +7477,11 @@
       <c r="F81" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -7478,13 +7500,13 @@
       <c r="F82" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="H82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -7503,11 +7525,11 @@
       <c r="F83" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -7526,11 +7548,11 @@
       <c r="F84" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -7549,11 +7571,11 @@
       <c r="F85" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -7572,11 +7594,11 @@
       <c r="F86" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -7595,14 +7617,14 @@
       <c r="F87" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I87" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -7621,12 +7643,12 @@
       <c r="F88" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -7645,11 +7667,11 @@
       <c r="F89" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -7668,11 +7690,11 @@
       <c r="F90" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I90" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J90" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -7691,11 +7713,11 @@
       <c r="F91" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -7715,7 +7737,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -7734,11 +7756,11 @@
       <c r="F93" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="K93" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -7757,18 +7779,18 @@
       <c r="F94" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -7787,14 +7809,14 @@
       <c r="F95" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -7813,15 +7835,15 @@
       <c r="F96" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -7840,15 +7862,15 @@
       <c r="F97" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H97" s="1"/>
-      <c r="K97" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I97" s="1"/>
+      <c r="L97" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -7867,14 +7889,14 @@
       <c r="F98" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I98" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J98" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -7893,14 +7915,14 @@
       <c r="F99" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I99" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -7919,11 +7941,11 @@
       <c r="F100" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -7943,7 +7965,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -7962,17 +7984,17 @@
       <c r="F102" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -7991,12 +8013,12 @@
       <c r="F103" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -8015,14 +8037,14 @@
       <c r="F104" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J104" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -8041,11 +8063,11 @@
       <c r="F105" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J105" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -8064,14 +8086,14 @@
       <c r="F106" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J106" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -8090,11 +8112,11 @@
       <c r="F107" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J107" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K107" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -8113,12 +8135,12 @@
       <c r="F108" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I108" s="1"/>
+      <c r="J108" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -8137,13 +8159,13 @@
       <c r="F109" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I109" s="1"/>
-      <c r="K109" s="1"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J109" s="1"/>
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -8162,15 +8184,15 @@
       <c r="F110" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I110" s="1"/>
-      <c r="K110" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J110" s="1"/>
+      <c r="L110" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -8189,12 +8211,12 @@
       <c r="F111" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -8213,12 +8235,12 @@
       <c r="F112" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -8237,12 +8259,12 @@
       <c r="F113" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -8261,12 +8283,12 @@
       <c r="F114" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -8285,12 +8307,12 @@
       <c r="F115" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -8309,12 +8331,12 @@
       <c r="F116" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -8333,12 +8355,12 @@
       <c r="F117" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -8357,14 +8379,14 @@
       <c r="F118" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J118" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -8383,10 +8405,10 @@
       <c r="F119" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="I119" s="1"/>
-      <c r="K119" s="1"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J119" s="1"/>
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -8405,12 +8427,12 @@
       <c r="F120" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="H120" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -8429,12 +8451,12 @@
       <c r="F121" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -8453,15 +8475,15 @@
       <c r="F122" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I122" s="1"/>
-      <c r="K122" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J122" s="1"/>
+      <c r="L122" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -8480,12 +8502,12 @@
       <c r="F123" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -8504,12 +8526,12 @@
       <c r="F124" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="H124" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K124" s="1"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -8528,12 +8550,12 @@
       <c r="F125" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="H125" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J125" s="1"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -8552,14 +8574,14 @@
       <c r="F126" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K126" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -8578,14 +8600,14 @@
       <c r="F127" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I127" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J127" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -8604,13 +8626,13 @@
       <c r="F128" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="H128" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H128" s="1"/>
-      <c r="K128" s="1"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I128" s="1"/>
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -8629,12 +8651,12 @@
       <c r="F129" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="H129" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K129" s="1"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -8653,11 +8675,11 @@
       <c r="F130" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I130" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J130" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -8676,12 +8698,12 @@
       <c r="F131" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="H131" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="K131" s="1"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -8700,14 +8722,14 @@
       <c r="F132" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="H132" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="K132" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -8726,14 +8748,14 @@
       <c r="F133" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -8752,14 +8774,14 @@
       <c r="F134" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I134" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -8778,14 +8800,14 @@
       <c r="F135" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="H135" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="K135" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -8804,14 +8826,14 @@
       <c r="F136" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="H136" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I136" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J136" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -8831,7 +8853,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -8850,11 +8872,11 @@
       <c r="F138" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="H138" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -8873,14 +8895,14 @@
       <c r="F139" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="H139" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I139" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J139" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -8899,11 +8921,11 @@
       <c r="F140" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -8922,11 +8944,11 @@
       <c r="F141" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="K141" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -8945,14 +8967,14 @@
       <c r="F142" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="H142" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K142" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -8971,14 +8993,14 @@
       <c r="F143" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="H143" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K143" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -8997,11 +9019,11 @@
       <c r="F144" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K144" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -9020,11 +9042,11 @@
       <c r="F145" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="H145" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -9043,14 +9065,14 @@
       <c r="F146" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="H146" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I146" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -9069,14 +9091,14 @@
       <c r="F147" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="H147" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="K147" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -9095,14 +9117,14 @@
       <c r="F148" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="H148" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H148" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I148" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -9118,14 +9140,14 @@
       <c r="E149" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="J149" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="K149" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -9144,15 +9166,15 @@
       <c r="F150" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="H150" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J150" s="1"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -9171,14 +9193,14 @@
       <c r="F151" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I151" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J151" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -9198,7 +9220,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -9217,11 +9239,11 @@
       <c r="F153" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -9240,14 +9262,14 @@
       <c r="F154" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="H154" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J154" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -9266,11 +9288,11 @@
       <c r="F155" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="K155" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -9289,11 +9311,11 @@
       <c r="F156" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="H156" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -9312,11 +9334,11 @@
       <c r="F157" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="H157" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -9335,11 +9357,11 @@
       <c r="F158" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -9358,17 +9380,17 @@
       <c r="F159" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="H159" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="H159" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I159" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -9387,13 +9409,13 @@
       <c r="F160" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -9412,14 +9434,14 @@
       <c r="F161" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="H161" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J161" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K161" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -9438,11 +9460,11 @@
       <c r="F162" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="H162" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -9461,11 +9483,11 @@
       <c r="F163" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -9484,15 +9506,15 @@
       <c r="F164" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="H164" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H164" s="1"/>
-      <c r="I164" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I164" s="1"/>
+      <c r="J164" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -9511,14 +9533,14 @@
       <c r="F165" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="H165" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I165" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -9537,11 +9559,11 @@
       <c r="F166" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="H166" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -9560,17 +9582,17 @@
       <c r="F167" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="H167" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I167" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K167" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -9589,17 +9611,17 @@
       <c r="F168" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="I168" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J168" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -9618,11 +9640,11 @@
       <c r="F169" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="H169" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -9641,17 +9663,17 @@
       <c r="F170" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="I170" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K170" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -9670,14 +9692,14 @@
       <c r="F171" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G171" s="1" t="s">
+      <c r="H171" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I171" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J171" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -9697,7 +9719,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -9716,11 +9738,11 @@
       <c r="F173" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="H173" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -9739,12 +9761,12 @@
       <c r="F174" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="I174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K174" s="1"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -9763,9 +9785,9 @@
       <c r="F175" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J175" s="1"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -9784,12 +9806,12 @@
       <c r="F176" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H176" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I176" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -9808,11 +9830,11 @@
       <c r="F177" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I177" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J177" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -9831,12 +9853,12 @@
       <c r="F178" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="H178" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -9855,14 +9877,14 @@
       <c r="F179" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="H179" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I179" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J179" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -9881,14 +9903,14 @@
       <c r="F180" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="H180" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="I180" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J180" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -9907,15 +9929,15 @@
       <c r="F181" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="H181" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H181" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I181" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" s="1"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -9935,7 +9957,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -9954,11 +9976,11 @@
       <c r="F183" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="H183" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -9977,14 +9999,14 @@
       <c r="F184" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="H184" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K184" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I184" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -10003,14 +10025,14 @@
       <c r="F185" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I185" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -10029,12 +10051,12 @@
       <c r="F186" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="H186" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J186" s="1"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K186" s="1"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -10053,17 +10075,17 @@
       <c r="F187" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="H187" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K187" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I187" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L187" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -10082,14 +10104,14 @@
       <c r="F188" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="H188" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="H188" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I188" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -10108,11 +10130,11 @@
       <c r="F189" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -10129,7 +10151,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -10148,15 +10170,15 @@
       <c r="F191" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="H191" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I191" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K191" s="1"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J191" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L191" s="1"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -10175,17 +10197,17 @@
       <c r="F192" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I192" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K192" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J192" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -10204,11 +10226,11 @@
       <c r="F193" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="H193" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -10227,12 +10249,12 @@
       <c r="F194" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K194" s="1"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L194" s="1"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -10251,14 +10273,14 @@
       <c r="F195" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="H195" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K195" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L195" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -10277,15 +10299,15 @@
       <c r="F196" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="H196" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I196" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K196" s="1"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J196" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L196" s="1"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -10304,13 +10326,13 @@
       <c r="F197" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="H197" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H197" s="1"/>
-      <c r="K197" s="1"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I197" s="1"/>
+      <c r="L197" s="1"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -10329,20 +10351,20 @@
       <c r="F198" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="H198" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I198" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K198" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -10361,15 +10383,15 @@
       <c r="F199" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="H199" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K199" s="1"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L199" s="1"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -10388,16 +10410,16 @@
       <c r="F200" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="H200" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H200" s="1"/>
-      <c r="I200" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K200" s="1"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I200" s="1"/>
+      <c r="J200" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L200" s="1"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -10416,15 +10438,15 @@
       <c r="F201" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I201" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K201" s="1"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J201" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L201" s="1"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -10443,17 +10465,17 @@
       <c r="F202" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="H202" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K202" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -10472,17 +10494,17 @@
       <c r="F203" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="H203" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K203" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -10501,14 +10523,14 @@
       <c r="F204" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K204" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>205</v>
       </c>
@@ -10527,17 +10549,17 @@
       <c r="F205" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="H205" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K205" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>206</v>
       </c>
@@ -10556,16 +10578,16 @@
       <c r="F206" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G206" s="1" t="s">
+      <c r="H206" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H206" s="1"/>
-      <c r="I206" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K206" s="1"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I206" s="1"/>
+      <c r="J206" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L206" s="1"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -10584,17 +10606,17 @@
       <c r="F207" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="H207" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K207" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I207" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -10613,12 +10635,12 @@
       <c r="F208" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="H208" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H208" s="1"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>209</v>
       </c>
@@ -10637,14 +10659,14 @@
       <c r="F209" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K209" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I209" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -10663,15 +10685,15 @@
       <c r="F210" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="H210" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H210" s="1"/>
-      <c r="K210" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I210" s="1"/>
+      <c r="L210" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>211</v>
       </c>
@@ -10690,15 +10712,15 @@
       <c r="F211" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="H211" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="H211" s="1"/>
-      <c r="K211" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I211" s="1"/>
+      <c r="L211" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>212</v>
       </c>
@@ -10717,13 +10739,13 @@
       <c r="F212" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="H212" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H212" s="1"/>
-      <c r="K212" s="1"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I212" s="1"/>
+      <c r="L212" s="1"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>213</v>
       </c>
@@ -10742,17 +10764,17 @@
       <c r="F213" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="H213" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H213" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K213" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I213" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>214</v>
       </c>
@@ -10772,7 +10794,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>215</v>
       </c>
@@ -10791,14 +10813,14 @@
       <c r="F215" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="H215" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I215" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J215" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>216</v>
       </c>
@@ -10817,15 +10839,15 @@
       <c r="F216" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="H216" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="I216" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J216" s="1"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J216" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K216" s="1"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>217</v>
       </c>
@@ -10844,12 +10866,12 @@
       <c r="F217" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="J217" s="1"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K217" s="1"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>218</v>
       </c>
@@ -10868,14 +10890,14 @@
       <c r="F218" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="H218" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J218" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K218" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>219</v>
       </c>
@@ -10895,7 +10917,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>220</v>
       </c>
@@ -10914,11 +10936,11 @@
       <c r="F220" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H220" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I220" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>221</v>
       </c>
@@ -10937,12 +10959,12 @@
       <c r="F221" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="H221" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H221" s="1"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>222</v>
       </c>
@@ -10962,7 +10984,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>223</v>
       </c>
@@ -10981,12 +11003,12 @@
       <c r="F223" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="H223" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K223" s="1"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L223" s="1"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>224</v>
       </c>
@@ -11005,14 +11027,14 @@
       <c r="F224" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="H224" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K224" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L224" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>225</v>
       </c>
@@ -11031,11 +11053,11 @@
       <c r="F225" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="H225" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>226</v>
       </c>
@@ -11054,11 +11076,11 @@
       <c r="F226" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="H226" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>227</v>
       </c>
@@ -11077,11 +11099,11 @@
       <c r="F227" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="H227" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>228</v>
       </c>
@@ -11100,9 +11122,9 @@
       <c r="F228" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="J228" s="1"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K228" s="1"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>229</v>
       </c>
@@ -11121,14 +11143,14 @@
       <c r="F229" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="H229" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I229" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J229" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>230</v>
       </c>
@@ -11147,15 +11169,15 @@
       <c r="F230" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="H230" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="J230" s="1"/>
-      <c r="K230" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K230" s="1"/>
+      <c r="L230" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>231</v>
       </c>
@@ -11174,17 +11196,17 @@
       <c r="F231" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="H231" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J231" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="K231" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L231" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>232</v>
       </c>
@@ -11203,14 +11225,14 @@
       <c r="F232" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="H232" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J232" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K232" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>233</v>
       </c>
@@ -11229,11 +11251,11 @@
       <c r="F233" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="H233" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I233" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>234</v>
       </c>
@@ -11252,14 +11274,14 @@
       <c r="F234" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="H234" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I234" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J234" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>235</v>
       </c>
@@ -11276,7 +11298,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>236</v>
       </c>
@@ -11295,17 +11317,17 @@
       <c r="F236" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G236" s="1" t="s">
+      <c r="H236" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="H236" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K236" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I236" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L236" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>237</v>
       </c>
@@ -11324,12 +11346,12 @@
       <c r="F237" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="H237" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J237" s="1"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K237" s="1"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>238</v>
       </c>
@@ -11348,14 +11370,14 @@
       <c r="F238" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="G238" s="1" t="s">
+      <c r="H238" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J238" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K238" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>239</v>
       </c>
@@ -11374,17 +11396,17 @@
       <c r="F239" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="H239" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I239" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K239" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J239" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>240</v>
       </c>
@@ -11403,14 +11425,14 @@
       <c r="F240" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="H240" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="I240" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J240" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>241</v>
       </c>
@@ -11429,11 +11451,11 @@
       <c r="F241" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="I241" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J241" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>242</v>
       </c>
@@ -11452,11 +11474,11 @@
       <c r="F242" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K242" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L242" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>243</v>
       </c>
@@ -11475,15 +11497,15 @@
       <c r="F243" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="G243" s="1" t="s">
+      <c r="H243" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="H243" s="1"/>
-      <c r="K243" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I243" s="1"/>
+      <c r="L243" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>244</v>
       </c>
@@ -11502,17 +11524,17 @@
       <c r="F244" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="H244" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K244" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I244" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>245</v>
       </c>
@@ -11531,16 +11553,16 @@
       <c r="F245" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G245" s="1" t="s">
+      <c r="H245" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H245" s="1"/>
-      <c r="I245" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K245" s="1"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I245" s="1"/>
+      <c r="J245" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L245" s="1"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>246</v>
       </c>
@@ -11559,15 +11581,15 @@
       <c r="F246" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G246" s="1" t="s">
+      <c r="H246" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H246" s="1"/>
-      <c r="K246" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I246" s="1"/>
+      <c r="L246" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>247</v>
       </c>
@@ -11586,13 +11608,13 @@
       <c r="F247" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G247" s="1" t="s">
+      <c r="H247" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H247" s="1"/>
-      <c r="K247" s="1"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I247" s="1"/>
+      <c r="L247" s="1"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>248</v>
       </c>
@@ -11611,10 +11633,10 @@
       <c r="F248" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H248" s="1"/>
-      <c r="K248" s="1"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I248" s="1"/>
+      <c r="L248" s="1"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>249</v>
       </c>
@@ -11633,17 +11655,17 @@
       <c r="F249" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="G249" s="1" t="s">
+      <c r="H249" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H249" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K249" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I249" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>250</v>
       </c>
@@ -11662,14 +11684,14 @@
       <c r="F250" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G250" s="1" t="s">
+      <c r="H250" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I250" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J250" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>251</v>
       </c>
@@ -11686,7 +11708,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>252</v>
       </c>
@@ -11705,14 +11727,14 @@
       <c r="F252" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G252" s="1" t="s">
+      <c r="H252" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H252" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I252" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>253</v>
       </c>
@@ -11731,15 +11753,15 @@
       <c r="F253" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G253" s="1" t="s">
+      <c r="H253" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I253" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J253" s="1"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J253" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K253" s="1"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>254</v>
       </c>
@@ -11758,20 +11780,20 @@
       <c r="F254" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="G254" s="1" t="s">
+      <c r="H254" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="H254" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J254" s="4" t="s">
+      <c r="I254" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K254" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L254" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>255</v>
       </c>
@@ -11790,14 +11812,14 @@
       <c r="F255" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G255" s="1" t="s">
+      <c r="H255" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I255" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J255" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>256</v>
       </c>
@@ -11816,14 +11838,14 @@
       <c r="F256" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G256" s="1" t="s">
+      <c r="H256" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I256" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J256" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>257</v>
       </c>
@@ -11842,14 +11864,14 @@
       <c r="F257" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H257" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K257" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I257" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>258</v>
       </c>
@@ -11868,20 +11890,20 @@
       <c r="F258" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G258" s="1" t="s">
+      <c r="H258" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H258" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I258" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K258" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I258" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J258" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>259</v>
       </c>
@@ -11900,13 +11922,13 @@
       <c r="F259" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G259" s="1" t="s">
+      <c r="H259" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H259" s="1"/>
-      <c r="K259" s="1"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I259" s="1"/>
+      <c r="L259" s="1"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>260</v>
       </c>
@@ -11925,17 +11947,17 @@
       <c r="F260" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G260" s="1" t="s">
+      <c r="H260" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H260" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K260" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I260" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L260" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>261</v>
       </c>
@@ -11954,13 +11976,13 @@
       <c r="F261" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G261" s="1" t="s">
+      <c r="H261" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H261" s="1"/>
-      <c r="K261" s="1"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I261" s="1"/>
+      <c r="L261" s="1"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>262</v>
       </c>
@@ -11979,14 +12001,14 @@
       <c r="F262" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="G262" s="1" t="s">
+      <c r="H262" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="K262" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L262" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>263</v>
       </c>
@@ -11999,9 +12021,9 @@
       <c r="D263" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="J263" s="1"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K263" s="1"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>264</v>
       </c>
@@ -12014,9 +12036,9 @@
       <c r="D264" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I264" s="1"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J264" s="1"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>265</v>
       </c>
@@ -12029,9 +12051,9 @@
       <c r="D265" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I265" s="1"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J265" s="1"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>266</v>
       </c>
@@ -12044,9 +12066,9 @@
       <c r="D266" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I266" s="1"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J266" s="1"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>267</v>
       </c>
@@ -12059,9 +12081,9 @@
       <c r="D267" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I267" s="1"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J267" s="1"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>268</v>
       </c>
@@ -12074,9 +12096,9 @@
       <c r="D268" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I268" s="1"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J268" s="1"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>269</v>
       </c>
@@ -12089,9 +12111,9 @@
       <c r="D269" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I269" s="1"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J269" s="1"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>270</v>
       </c>
@@ -12104,9 +12126,9 @@
       <c r="D270" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I270" s="1"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J270" s="1"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>271</v>
       </c>
@@ -12119,9 +12141,9 @@
       <c r="D271" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I271" s="1"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J271" s="1"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>272</v>
       </c>
@@ -12134,9 +12156,9 @@
       <c r="D272" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I272" s="1"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J272" s="1"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>273</v>
       </c>
@@ -12149,9 +12171,9 @@
       <c r="D273" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="K273" s="1"/>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L273" s="1"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>274</v>
       </c>
@@ -12164,9 +12186,9 @@
       <c r="D274" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="K274" s="1"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L274" s="1"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>275</v>
       </c>
@@ -12179,10 +12201,10 @@
       <c r="D275" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H275" s="1"/>
-      <c r="K275" s="1"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I275" s="1"/>
+      <c r="L275" s="1"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>276</v>
       </c>
@@ -12195,9 +12217,9 @@
       <c r="D276" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="J276" s="1"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>277</v>
       </c>
@@ -12211,7 +12233,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>278</v>
       </c>
@@ -12224,9 +12246,9 @@
       <c r="D278" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="K278" s="1"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L278" s="1"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>279</v>
       </c>
@@ -12240,7 +12262,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>280</v>
       </c>
@@ -12254,7 +12276,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>281</v>
       </c>
@@ -12267,9 +12289,9 @@
       <c r="D281" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="J281" s="1"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K281" s="1"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>282</v>
       </c>
@@ -12282,9 +12304,9 @@
       <c r="D282" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H282" s="1"/>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I282" s="1"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>283</v>
       </c>
@@ -12297,9 +12319,9 @@
       <c r="D283" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="K283" s="1"/>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L283" s="1"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>284</v>
       </c>
@@ -12312,10 +12334,10 @@
       <c r="D284" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I284" s="1"/>
-      <c r="K284" s="1"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J284" s="1"/>
+      <c r="L284" s="1"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>285</v>
       </c>
@@ -12328,9 +12350,9 @@
       <c r="D285" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I285" s="1"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J285" s="1"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>286</v>
       </c>
@@ -12344,7 +12366,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>287</v>
       </c>
@@ -12358,7 +12380,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>288</v>
       </c>
@@ -12371,10 +12393,10 @@
       <c r="D288" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H288" s="1"/>
-      <c r="K288" s="1"/>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I288" s="1"/>
+      <c r="L288" s="1"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>289</v>
       </c>
@@ -12387,9 +12409,9 @@
       <c r="D289" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="J289" s="1"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K289" s="1"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>290</v>
       </c>
@@ -12402,9 +12424,9 @@
       <c r="D290" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="K290" s="1"/>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L290" s="1"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>291</v>
       </c>
@@ -12417,9 +12439,9 @@
       <c r="D291" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="K291" s="1"/>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L291" s="1"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>292</v>
       </c>
@@ -12432,9 +12454,9 @@
       <c r="D292" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="K292" s="1"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L292" s="1"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>293</v>
       </c>
@@ -12447,9 +12469,9 @@
       <c r="D293" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="K293" s="1"/>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L293" s="1"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>294</v>
       </c>
@@ -12462,9 +12484,9 @@
       <c r="D294" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="K294" s="1"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L294" s="1"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>295</v>
       </c>
@@ -12477,10 +12499,10 @@
       <c r="D295" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H295" s="1"/>
-      <c r="K295" s="1"/>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I295" s="1"/>
+      <c r="L295" s="1"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>296</v>
       </c>
@@ -12493,10 +12515,10 @@
       <c r="D296" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="J296" s="1"/>
       <c r="K296" s="1"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L296" s="1"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>297</v>
       </c>
@@ -12509,9 +12531,9 @@
       <c r="D297" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="J297" s="1"/>
-    </row>
-    <row r="298" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K297" s="1"/>
+    </row>
+    <row r="298" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>298</v>
       </c>
@@ -12525,7 +12547,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>299</v>
       </c>
@@ -12539,7 +12561,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>300</v>
       </c>
@@ -12553,7 +12575,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>301</v>
       </c>
@@ -12567,7 +12589,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>302</v>
       </c>
@@ -12581,7 +12603,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>303</v>
       </c>
@@ -12595,7 +12617,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>304</v>
       </c>
@@ -12609,7 +12631,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>305</v>
       </c>
@@ -12622,9 +12644,9 @@
       <c r="D305" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="J305" s="1"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K305" s="1"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>306</v>
       </c>
@@ -12638,7 +12660,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>307</v>
       </c>
@@ -12652,7 +12674,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>308</v>
       </c>
@@ -12666,7 +12688,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>309</v>
       </c>
@@ -12679,9 +12701,9 @@
       <c r="D309" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="J309" s="1"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K309" s="1"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>310</v>
       </c>
@@ -12694,9 +12716,9 @@
       <c r="D310" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I310" s="1"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J310" s="1"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>311</v>
       </c>
@@ -12710,7 +12732,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>312</v>
       </c>
@@ -12724,7 +12746,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>313</v>
       </c>
@@ -12737,9 +12759,9 @@
       <c r="D313" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H313" s="1"/>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I313" s="1"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>314</v>
       </c>
@@ -12753,7 +12775,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>315</v>
       </c>
@@ -12767,7 +12789,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>316</v>
       </c>
@@ -12780,9 +12802,9 @@
       <c r="D316" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I316" s="1"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J316" s="1"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>317</v>
       </c>
@@ -12796,7 +12818,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>318</v>
       </c>
@@ -12809,10 +12831,10 @@
       <c r="D318" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I318" s="1"/>
-      <c r="K318" s="1"/>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J318" s="1"/>
+      <c r="L318" s="1"/>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>319</v>
       </c>
@@ -12825,11 +12847,11 @@
       <c r="D319" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H319" s="1"/>
       <c r="I319" s="1"/>
-      <c r="K319" s="1"/>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J319" s="1"/>
+      <c r="L319" s="1"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>320</v>
       </c>
@@ -12842,10 +12864,10 @@
       <c r="D320" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I320" s="1"/>
-      <c r="K320" s="1"/>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J320" s="1"/>
+      <c r="L320" s="1"/>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>321</v>
       </c>
@@ -12859,7 +12881,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>322</v>
       </c>
@@ -12872,9 +12894,9 @@
       <c r="D322" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="J322" s="1"/>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K322" s="1"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>323</v>
       </c>
@@ -12888,7 +12910,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>324</v>
       </c>
@@ -12901,10 +12923,10 @@
       <c r="D324" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H324" s="1"/>
-      <c r="K324" s="1"/>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I324" s="1"/>
+      <c r="L324" s="1"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>325</v>
       </c>
@@ -12917,9 +12939,9 @@
       <c r="D325" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I325" s="1"/>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J325" s="1"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>326</v>
       </c>
@@ -12932,9 +12954,9 @@
       <c r="D326" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="J326" s="1"/>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K326" s="1"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>327</v>
       </c>
@@ -12948,7 +12970,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>328</v>
       </c>
@@ -12962,7 +12984,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>329</v>
       </c>
@@ -12975,10 +12997,10 @@
       <c r="D329" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H329" s="1"/>
-      <c r="K329" s="1"/>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I329" s="1"/>
+      <c r="L329" s="1"/>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>330</v>
       </c>
@@ -12991,10 +13013,10 @@
       <c r="D330" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H330" s="1"/>
-      <c r="K330" s="1"/>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I330" s="1"/>
+      <c r="L330" s="1"/>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>331</v>
       </c>
@@ -13007,10 +13029,10 @@
       <c r="D331" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H331" s="1"/>
-      <c r="K331" s="1"/>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I331" s="1"/>
+      <c r="L331" s="1"/>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>332</v>
       </c>
@@ -13023,10 +13045,10 @@
       <c r="D332" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H332" s="1"/>
-      <c r="K332" s="1"/>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I332" s="1"/>
+      <c r="L332" s="1"/>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>333</v>
       </c>
@@ -13039,10 +13061,10 @@
       <c r="D333" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H333" s="1"/>
-      <c r="K333" s="1"/>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I333" s="1"/>
+      <c r="L333" s="1"/>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>334</v>
       </c>
@@ -13056,7 +13078,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>335</v>
       </c>
@@ -13069,9 +13091,9 @@
       <c r="D335" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H335" s="1"/>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I335" s="1"/>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>336</v>
       </c>
@@ -13084,9 +13106,9 @@
       <c r="D336" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="K336" s="1"/>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L336" s="1"/>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>337</v>
       </c>
@@ -13099,9 +13121,9 @@
       <c r="D337" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="K337" s="1"/>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L337" s="1"/>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>338</v>
       </c>
@@ -13114,9 +13136,9 @@
       <c r="D338" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="K338" s="1"/>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L338" s="1"/>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>339</v>
       </c>
@@ -13130,7 +13152,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>340</v>
       </c>
@@ -13143,10 +13165,10 @@
       <c r="D340" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H340" s="1"/>
-      <c r="K340" s="1"/>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I340" s="1"/>
+      <c r="L340" s="1"/>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>341</v>
       </c>
@@ -13159,9 +13181,9 @@
       <c r="D341" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I341" s="1"/>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J341" s="1"/>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>342</v>
       </c>
@@ -13174,9 +13196,9 @@
       <c r="D342" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="I342" s="1"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J342" s="1"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>343</v>
       </c>
@@ -13190,7 +13212,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>344</v>
       </c>
@@ -13204,7 +13226,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>345</v>
       </c>
@@ -13218,7 +13240,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>346</v>
       </c>
@@ -13232,7 +13254,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>347</v>
       </c>
@@ -13245,10 +13267,10 @@
       <c r="D347" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H347" s="1"/>
-      <c r="K347" s="1"/>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I347" s="1"/>
+      <c r="L347" s="1"/>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>348</v>
       </c>
@@ -13262,7 +13284,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>349</v>
       </c>
@@ -13275,10 +13297,10 @@
       <c r="D349" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H349" s="1"/>
-      <c r="K349" s="1"/>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I349" s="1"/>
+      <c r="L349" s="1"/>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>350</v>
       </c>
@@ -13292,7 +13314,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>351</v>
       </c>
@@ -13305,9 +13327,9 @@
       <c r="D351" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H351" s="1"/>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I351" s="1"/>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>352</v>
       </c>
@@ -13321,7 +13343,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>353</v>
       </c>
@@ -13334,11 +13356,11 @@
       <c r="D353" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H353" s="1"/>
       <c r="I353" s="1"/>
-      <c r="K353" s="1"/>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J353" s="1"/>
+      <c r="L353" s="1"/>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>354</v>
       </c>
@@ -13351,10 +13373,10 @@
       <c r="D354" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H354" s="1"/>
-      <c r="K354" s="1"/>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I354" s="1"/>
+      <c r="L354" s="1"/>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>355</v>
       </c>
@@ -13367,10 +13389,10 @@
       <c r="D355" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H355" s="1"/>
-      <c r="K355" s="1"/>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I355" s="1"/>
+      <c r="L355" s="1"/>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>356</v>
       </c>
@@ -13383,9 +13405,9 @@
       <c r="D356" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H356" s="1"/>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I356" s="1"/>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>357</v>
       </c>
@@ -13398,9 +13420,9 @@
       <c r="D357" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="H357" s="1"/>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I357" s="1"/>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>358</v>
       </c>
@@ -13413,10 +13435,10 @@
       <c r="D358" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I358" s="1"/>
-      <c r="K358" s="1"/>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J358" s="1"/>
+      <c r="L358" s="1"/>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>359</v>
       </c>
@@ -13429,9 +13451,9 @@
       <c r="D359" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I359" s="1"/>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J359" s="1"/>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>360</v>
       </c>
@@ -13444,9 +13466,9 @@
       <c r="D360" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K360" s="1"/>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L360" s="1"/>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>361</v>
       </c>
@@ -13460,7 +13482,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>362</v>
       </c>
@@ -13474,7 +13496,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>363</v>
       </c>
@@ -13487,9 +13509,9 @@
       <c r="D363" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K363" s="1"/>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L363" s="1"/>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>364</v>
       </c>
@@ -13502,9 +13524,9 @@
       <c r="D364" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K364" s="1"/>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L364" s="1"/>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>365</v>
       </c>
@@ -13517,10 +13539,10 @@
       <c r="D365" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H365" s="1"/>
-      <c r="K365" s="1"/>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I365" s="1"/>
+      <c r="L365" s="1"/>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>366</v>
       </c>
@@ -13533,9 +13555,9 @@
       <c r="D366" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K366" s="1"/>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L366" s="1"/>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>367</v>
       </c>
@@ -13549,7 +13571,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>368</v>
       </c>
@@ -13563,7 +13585,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>369</v>
       </c>
@@ -13576,9 +13598,9 @@
       <c r="D369" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K369" s="1"/>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L369" s="1"/>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>370</v>
       </c>
@@ -13591,9 +13613,9 @@
       <c r="D370" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K370" s="1"/>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L370" s="1"/>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>371</v>
       </c>
@@ -13607,7 +13629,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>372</v>
       </c>
@@ -13621,7 +13643,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>373</v>
       </c>
@@ -13635,7 +13657,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>374</v>
       </c>
@@ -13649,7 +13671,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>375</v>
       </c>
@@ -13662,9 +13684,9 @@
       <c r="D375" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K375" s="1"/>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L375" s="1"/>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>376</v>
       </c>
@@ -13678,7 +13700,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>377</v>
       </c>
@@ -13691,9 +13713,9 @@
       <c r="D377" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H377" s="1"/>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I377" s="1"/>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>378</v>
       </c>
@@ -13706,9 +13728,9 @@
       <c r="D378" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H378" s="1"/>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I378" s="1"/>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>379</v>
       </c>
@@ -13721,9 +13743,9 @@
       <c r="D379" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I379" s="1"/>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J379" s="1"/>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>380</v>
       </c>
@@ -13736,9 +13758,9 @@
       <c r="D380" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I380" s="1"/>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J380" s="1"/>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>381</v>
       </c>
@@ -13751,9 +13773,9 @@
       <c r="D381" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I381" s="1"/>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J381" s="1"/>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>382</v>
       </c>
@@ -13766,9 +13788,9 @@
       <c r="D382" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I382" s="1"/>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J382" s="1"/>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>383</v>
       </c>
@@ -13781,9 +13803,9 @@
       <c r="D383" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I383" s="1"/>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J383" s="1"/>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>384</v>
       </c>
@@ -13796,9 +13818,9 @@
       <c r="D384" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I384" s="1"/>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J384" s="1"/>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>385</v>
       </c>
@@ -13811,9 +13833,9 @@
       <c r="D385" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I385" s="1"/>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J385" s="1"/>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>386</v>
       </c>
@@ -13826,9 +13848,9 @@
       <c r="D386" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I386" s="1"/>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J386" s="1"/>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>387</v>
       </c>
@@ -13841,9 +13863,9 @@
       <c r="D387" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K387" s="1"/>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L387" s="1"/>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>388</v>
       </c>
@@ -13856,9 +13878,9 @@
       <c r="D388" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I388" s="1"/>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J388" s="1"/>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>389</v>
       </c>
@@ -13871,9 +13893,9 @@
       <c r="D389" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K389" s="1"/>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L389" s="1"/>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>390</v>
       </c>
@@ -13887,7 +13909,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>391</v>
       </c>
@@ -13901,7 +13923,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>392</v>
       </c>
@@ -13914,10 +13936,10 @@
       <c r="D392" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H392" s="1"/>
-      <c r="K392" s="1"/>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I392" s="1"/>
+      <c r="L392" s="1"/>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>393</v>
       </c>
@@ -13931,7 +13953,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>394</v>
       </c>
@@ -13944,9 +13966,9 @@
       <c r="D394" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H394" s="1"/>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I394" s="1"/>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>395</v>
       </c>
@@ -13959,9 +13981,9 @@
       <c r="D395" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I395" s="1"/>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J395" s="1"/>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>396</v>
       </c>
@@ -13975,7 +13997,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>397</v>
       </c>
@@ -13989,7 +14011,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>398</v>
       </c>
@@ -14002,9 +14024,9 @@
       <c r="D398" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K398" s="1"/>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L398" s="1"/>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>399</v>
       </c>
@@ -14017,9 +14039,9 @@
       <c r="D399" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K399" s="1"/>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L399" s="1"/>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>400</v>
       </c>
@@ -14032,9 +14054,9 @@
       <c r="D400" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I400" s="1"/>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J400" s="1"/>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>401</v>
       </c>
@@ -14048,7 +14070,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>402</v>
       </c>
@@ -14061,9 +14083,9 @@
       <c r="D402" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H402" s="1"/>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I402" s="1"/>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>403</v>
       </c>
@@ -14076,9 +14098,9 @@
       <c r="D403" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I403" s="1"/>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J403" s="1"/>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>404</v>
       </c>
@@ -14091,9 +14113,9 @@
       <c r="D404" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I404" s="1"/>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J404" s="1"/>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>405</v>
       </c>
@@ -14106,9 +14128,9 @@
       <c r="D405" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H405" s="1"/>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I405" s="1"/>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>406</v>
       </c>
@@ -14122,7 +14144,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>407</v>
       </c>
@@ -14136,7 +14158,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>408</v>
       </c>
@@ -14150,7 +14172,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>409</v>
       </c>
@@ -14164,7 +14186,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>410</v>
       </c>
@@ -14177,10 +14199,10 @@
       <c r="D410" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H410" s="1"/>
-      <c r="K410" s="1"/>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I410" s="1"/>
+      <c r="L410" s="1"/>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>411</v>
       </c>
@@ -14193,9 +14215,9 @@
       <c r="D411" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I411" s="1"/>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J411" s="1"/>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>412</v>
       </c>
@@ -14208,9 +14230,9 @@
       <c r="D412" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I412" s="1"/>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J412" s="1"/>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>413</v>
       </c>
@@ -14223,9 +14245,9 @@
       <c r="D413" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I413" s="1"/>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J413" s="1"/>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>414</v>
       </c>
@@ -14238,9 +14260,9 @@
       <c r="D414" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K414" s="1"/>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L414" s="1"/>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>415</v>
       </c>
@@ -14253,9 +14275,9 @@
       <c r="D415" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K415" s="1"/>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L415" s="1"/>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>416</v>
       </c>
@@ -14268,9 +14290,9 @@
       <c r="D416" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K416" s="1"/>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L416" s="1"/>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>417</v>
       </c>
@@ -14283,10 +14305,10 @@
       <c r="D417" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I417" s="1"/>
-      <c r="K417" s="1"/>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J417" s="1"/>
+      <c r="L417" s="1"/>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>418</v>
       </c>
@@ -14299,10 +14321,10 @@
       <c r="D418" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H418" s="1"/>
-      <c r="K418" s="1"/>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I418" s="1"/>
+      <c r="L418" s="1"/>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>419</v>
       </c>
@@ -14315,10 +14337,10 @@
       <c r="D419" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H419" s="1"/>
-      <c r="K419" s="1"/>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I419" s="1"/>
+      <c r="L419" s="1"/>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>420</v>
       </c>
@@ -14331,10 +14353,10 @@
       <c r="D420" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H420" s="1"/>
-      <c r="K420" s="1"/>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I420" s="1"/>
+      <c r="L420" s="1"/>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>421</v>
       </c>
@@ -14348,7 +14370,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>422</v>
       </c>
@@ -14362,7 +14384,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>423</v>
       </c>
@@ -14376,7 +14398,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>424</v>
       </c>
@@ -14389,9 +14411,9 @@
       <c r="D424" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K424" s="1"/>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L424" s="1"/>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>425</v>
       </c>
@@ -14404,9 +14426,9 @@
       <c r="D425" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K425" s="1"/>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L425" s="1"/>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>426</v>
       </c>
@@ -14419,9 +14441,9 @@
       <c r="D426" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K426" s="1"/>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L426" s="1"/>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>427</v>
       </c>
@@ -14435,7 +14457,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>428</v>
       </c>
@@ -14449,7 +14471,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>429</v>
       </c>
@@ -14462,9 +14484,9 @@
       <c r="D429" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H429" s="1"/>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I429" s="1"/>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>430</v>
       </c>
@@ -14478,7 +14500,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>431</v>
       </c>
@@ -14492,7 +14514,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>432</v>
       </c>
@@ -14505,9 +14527,9 @@
       <c r="D432" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H432" s="1"/>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I432" s="1"/>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>433</v>
       </c>
@@ -14521,7 +14543,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>434</v>
       </c>
@@ -14534,10 +14556,10 @@
       <c r="D434" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I434" s="1"/>
-      <c r="K434" s="1"/>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J434" s="1"/>
+      <c r="L434" s="1"/>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>435</v>
       </c>
@@ -14550,9 +14572,9 @@
       <c r="D435" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="I435" s="1"/>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J435" s="1"/>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>436</v>
       </c>
@@ -14565,9 +14587,9 @@
       <c r="D436" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H436" s="1"/>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I436" s="1"/>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>437</v>
       </c>
@@ -14581,7 +14603,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>438</v>
       </c>
@@ -14595,7 +14617,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>439</v>
       </c>
@@ -14608,9 +14630,9 @@
       <c r="D439" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K439" s="1"/>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L439" s="1"/>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>440</v>
       </c>
@@ -14623,9 +14645,9 @@
       <c r="D440" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K440" s="1"/>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L440" s="1"/>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>441</v>
       </c>
@@ -14638,10 +14660,10 @@
       <c r="D441" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H441" s="1"/>
-      <c r="K441" s="1"/>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I441" s="1"/>
+      <c r="L441" s="1"/>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>442</v>
       </c>
@@ -14654,10 +14676,10 @@
       <c r="D442" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H442" s="1"/>
-      <c r="K442" s="1"/>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I442" s="1"/>
+      <c r="L442" s="1"/>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>443</v>
       </c>
@@ -14670,10 +14692,10 @@
       <c r="D443" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H443" s="1"/>
-      <c r="K443" s="1"/>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I443" s="1"/>
+      <c r="L443" s="1"/>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>444</v>
       </c>
@@ -14686,10 +14708,10 @@
       <c r="D444" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="H444" s="1"/>
-      <c r="K444" s="1"/>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I444" s="1"/>
+      <c r="L444" s="1"/>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>445</v>
       </c>
@@ -14703,7 +14725,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>446</v>
       </c>
@@ -14716,9 +14738,9 @@
       <c r="D446" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="K446" s="1"/>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L446" s="1"/>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>447</v>
       </c>
